--- a/target/classes/caseconf/userCreate/Case_userCreate.xlsx
+++ b/target/classes/caseconf/userCreate/Case_userCreate.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="132">
   <si>
     <t>lable</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "USR2001",
-    "resMsg": "用户已注册",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
@@ -243,14 +235,6 @@
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0009",
-    "resMsg": "请求重复",
-    "successful": 1
-}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -522,44 +506,6 @@
   <si>
     <r>
       <t>{
- "requestId":"20200326",
- "tenantId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
- "tenantUserId":"000112",
- "params":{
-        "name":"小明",
-        "mobileNo":"18899934567",
-        "certNo":"341222199303040000",
-        "email":"1234567@126.com"
-        }
-}</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
  "requestId":"10015",
  "tenantId": "</t>
     </r>
@@ -884,13 +830,6 @@
   </si>
   <si>
     <t>select * from user_basic_info where tenant_user_id = 000111 and tenant_id = 1001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_info_item where tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_index where tenant_id = 1001;
-delete from user_basic_info where tenant_id = 1001</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1381,6 +1320,36 @@
   </si>
   <si>
     <t>userCreate-0020</t>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR2001",
+    "resMsg": "用户已注册",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0009",
+    "resMsg": "请求重复",
+    "successful": 1
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200326",
+ "tenantId": "1001",
+ "tenantUserId":"000112",
+ "params":{
+        "name":"小明",
+        "mobileNo":"18899934567",
+        "certNo":"341222199303040000",
+        "email":"1234567@126.com"
+        }
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1583,7 +1552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1788,6 +1757,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2073,9 +2045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -2140,13 +2112,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="206.5" customHeight="1">
@@ -2154,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -2163,14 +2135,12 @@
         <v>15</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>16</v>
@@ -2178,21 +2148,21 @@
       <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="65" t="s">
-        <v>112</v>
+      <c r="K2" s="69" t="s">
+        <v>108</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="O2" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="154">
@@ -2200,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
@@ -2209,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>16</v>
@@ -2217,20 +2187,20 @@
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>55</v>
+      <c r="K3" s="69" t="s">
+        <v>53</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="100" customHeight="1">
@@ -2238,26 +2208,26 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6"/>
       <c r="H4" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>56</v>
+      <c r="K4" s="69" t="s">
+        <v>131</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="32"/>
@@ -2268,37 +2238,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="126">
@@ -2306,37 +2276,37 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="154.5">
@@ -2344,16 +2314,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>16</v>
@@ -2362,19 +2332,19 @@
         <v>21</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="154">
@@ -2382,37 +2352,37 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="140">
@@ -2420,37 +2390,37 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="140">
@@ -2458,37 +2428,37 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="140">
@@ -2496,16 +2466,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>16</v>
@@ -2514,19 +2484,19 @@
         <v>17</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="140">
@@ -2534,37 +2504,37 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="65" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="154">
@@ -2572,16 +2542,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -2590,19 +2560,19 @@
         <v>17</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="154">
@@ -2610,14 +2580,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -2626,19 +2596,19 @@
         <v>21</v>
       </c>
       <c r="K14" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="O14" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="266">
@@ -2646,30 +2616,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N15" s="30"/>
     </row>
@@ -2678,17 +2648,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>16</v>
@@ -2697,11 +2667,11 @@
         <v>21</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N16" s="30"/>
     </row>
@@ -2710,30 +2680,30 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N17" s="30"/>
     </row>
@@ -2742,30 +2712,30 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N18" s="30"/>
     </row>
@@ -2774,17 +2744,17 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>16</v>
@@ -2793,11 +2763,11 @@
         <v>21</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N19" s="30"/>
     </row>
@@ -2806,30 +2776,30 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N20" s="30"/>
     </row>
@@ -2838,30 +2808,30 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N21" s="30"/>
     </row>

--- a/target/classes/caseconf/userCreate/Case_userCreate.xlsx
+++ b/target/classes/caseconf/userCreate/Case_userCreate.xlsx
@@ -134,115 +134,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="240">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>用户创建成功</t>
     <rPh sb="0" eb="1">
       <t>yong'hu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>用户已存在</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传-手机号为空</t>
     <rPh sb="0" eb="1">
       <t>fei'bi'chuan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -250,19 +250,19 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--证件号为空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -270,30 +270,30 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--姓名为空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--邮箱为空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传-手机号缺少参数</t>
     <rPh sb="0" eb="1">
       <t>fei'bi'chuan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -301,7 +301,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--证件号缺少参数</t>
@@ -311,19 +311,19 @@
     <rPh sb="10" eb="11">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--姓名缺少参数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--邮箱缺少参数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传字段都为空</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>非必传--组合4选2，3</t>
@@ -333,7 +333,7 @@
     <rPh sb="8" eb="9">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -346,7 +346,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -359,7 +359,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -373,7 +373,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -386,7 +386,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -399,7 +399,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -412,7 +412,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -425,7 +425,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -438,7 +438,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-params</t>
@@ -451,15 +451,15 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -497,7 +497,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -510,7 +510,7 @@
         "email":"1234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -542,7 +542,7 @@
  "tenantUserId":"000111"
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -551,7 +551,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'requestId': rejected value []; codes [NotBlank.userInfoByCreateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -560,7 +560,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantId': rejected value []; codes [NotEmpty.userInfoByCreateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,7 +598,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -607,7 +607,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantUserId': rejected value []; codes [NotBlank.userInfoByCreateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -616,7 +616,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'requestId': rejected value [null]; codes [NotBlank.userInfoByCreateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -625,7 +625,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoByCreateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -662,7 +662,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -671,7 +671,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.userInfoByCreateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -680,28 +680,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'params': rejected value [null]; codes [NotNull.userInfoByCreateReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00111</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from user_basic_info where tenant_user_id = 000111 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -733,11 +712,11 @@
       <t xml:space="preserve">
 }</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>userCreate-0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>userCreate-0002</t>
@@ -802,7 +781,7 @@
     "resMsg": "用户已注册",
     "successful": 0
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -810,7 +789,7 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -823,14 +802,7 @@
         "email":"9834567@126.com"
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000111  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000111 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000111 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -854,7 +826,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -892,7 +864,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -930,7 +902,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -967,7 +939,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -981,47 +953,47 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selSQL5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1029,152 +1001,63 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>000111,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-{
- "requestId":"20200326",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-        "name":"小明",
-        "mobileNo":"18899934567",
-        "certNo":"341222199303040000",
-        "email":"1234567@126.com"
-        }
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =000111 and tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000111,name,小*</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "email";
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">000111,email,1234***@126.com
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000111,mobileNo,188****4567</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "certNo";
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_request_serial values (99900,2020,1001,000112,1,1,"2020-04-14 15:31:11","2020-04-14 15:31:11");</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"2020",
- "tenantId": "1001",
- "tenantUserId":"000112",
- "params":{
-        "name":"小明",
-        "mobileNo":"18899934567",
-        "certNo":"341222199303040000",
-        "email":"1234567@126.com"
-        }
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333335,certNo,5412**********0000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333335 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333335 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333335,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333335 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333335,email,3234***@126.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333336 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333336,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333336 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333336,email,8834***@126.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333336 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333336,mobileNo,155****9098</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533335 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1232,54 +1115,20 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>533335,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335,email,8898***@126.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533335and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>533335,mobileNo,135****9098</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533335and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000111,certNo,3412**********0000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335,certNo,1234**********5432</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">select tenant_user_id,status from user_basic_info where tenant_user_id =833334 and tenant_id = 1001
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =833334  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 833334 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 833334 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =533335  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 533335 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 533335 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1315,28 +1164,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =333336 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 333336 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 333336 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =333335  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 333335 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 333335 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =333333 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 333333 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 333333 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1353,44 +1181,23 @@
       </rPr>
       <t>,1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833334 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>833334,certNo,5434**********5432</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833334 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>833334,mobileNo,189****9098</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>333333,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>333333,certNo,5412**********0000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3234***@126.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1403,23 +1210,16 @@
         "email":"3234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =334 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 334 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 334 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 select tenant_user_id,status from user_basic_info where tenant_user_id =333333 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =334 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1436,73 +1236,43 @@
       </rPr>
       <t>34,1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = 334 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>334,certNo,5412**********0000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = 334 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>334,email,3234***@126.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = 334 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>334,name,李*</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =533333 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 533333 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 533333 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>533333,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>533333,email,9834***@126.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,certNo,1234**********5432</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,mobileNo,1135****9098</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =833330 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 833330 and tenant_id = 1001;
-delete from user_index where tenant_user_id =833330 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1515,11 +1285,11 @@
         "certNo":"543456789098765432"
         }
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533333 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1536,19 +1306,19 @@
       </rPr>
       <t>,1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833330 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833330 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833330 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1575,23 +1345,23 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>833330,certNo,5434**********5432</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>833330,name,李</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833330 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>833339</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>83333</t>
     </r>
     <r>
       <rPr>
@@ -1604,51 +1374,7 @@
       </rPr>
       <t>,1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833339 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833339 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833339 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833339 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =83333 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 83333 and tenant_id = 1001;
-delete from user_index where tenant_user_id =83333 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833339 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1676,39 +1402,924 @@
       </rPr>
       <t xml:space="preserve"> from user_basic_info where tenant_user_id =83333 and tenant_id = 1001</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330,mobileNo,1896****9098</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>83333,mobileNo,1896****9098</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200326",
+ "tenantId": "1001",
+ "tenantUserId":"000111",
+ "params":{
+        "name":"小明",
+        "mobileNo":"18899934567",
+        "certNo":"341222199303040000",
+        "email":"1234567@126.com"
+        }
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00111,1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"2020",
+ "tenantId": "1001",
+ "tenantUserId":"000112",
+ "params":{
+        "name":"小明",
+        "mobileNo":"18899934567",
+        "certNo":"341222199303040000",
+        "email":"1234567@126.com"
+        }
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =000111  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000111 and tenant_id = 1001;
+delete from user_index where tenant_user_id =000111 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id =000113 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =333335  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 333335 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 333335 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =333336 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 333336 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 333336 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =533335  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 533335 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 533335 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =833334  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 833334 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 833334 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =333333 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 333333 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 333333 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =334 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 334 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 334 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =533333 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 533333 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 533333 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =833330 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 833330 and tenant_id = 1001;
+delete from user_index where tenant_user_id =833330 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =833330 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 833330 and tenant_id = 1001;
+delete from user_index where tenant_user_id =833330 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =83333 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 83333 and tenant_id = 1001;
+delete from user_index where tenant_user_id =83333 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "certNo";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "name";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "certNo";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "mobileNo";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "email";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,certNo,1234**********5432</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "email";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>533335,email,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9834***@126.com</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>533335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "email";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and tenant_id = 1001 and key_name = "certNo";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and tenant_id = 1001 and key_name = "mobileNo";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and tenant_id = 1001 and key_name = "mobileNo";</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = 1001 and key_name = "email";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "email";
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "name";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000111,name,小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "mobileNo";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000111,mobileNo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188****4567</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000111,certNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3412**********0000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_request_serial values (99900,2020,1001,000112,1,1,"2020-04-14 15:31:11","2020-04-14 15:31:11")</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>83333,mobileNo,189****9098</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330,mobileNo,189****9098</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,email,3234***@126.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111,email,1234***@126.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333335 and tenant_id = 1001 and key_name = "email";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>333335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>333336,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333336</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335,certNo,1234**********5432</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>833334,mobileNo,189****9098</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,certNo,5412**********0000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>334,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,mobileNo,135****9098</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833330</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "certNo";</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>333335,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =000111 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =333335 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =333336 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =533335 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>833334,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =833334 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =333333 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select tenant_user_id from user_index where tenant_user_id =33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =533333 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =833330 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =833330 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>83333,certNo,5434**********5432</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =83333 and tenant_id = 1001;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1833,7 +2444,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1864,6 +2475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1876,214 +2493,253 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2368,11 +3024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W200"/>
+  <dimension ref="A1:Y200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -2397,13 +3053,15 @@
     <col min="18" max="18" width="19.83203125" style="5" customWidth="1"/>
     <col min="19" max="19" width="11" style="12"/>
     <col min="20" max="20" width="16.33203125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" style="12" customWidth="1"/>
     <col min="22" max="22" width="17.58203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="22.08203125" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="11" style="5"/>
+    <col min="23" max="23" width="22.08203125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="17.4140625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="18.58203125" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1">
+    <row r="1" spans="1:25" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2444,42 +3102,48 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="R1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="63" t="s">
+      <c r="T1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="V1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="206.5" customHeight="1">
+      <c r="X1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y1" s="63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="206.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -2489,8 +3153,8 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
-        <v>90</v>
+      <c r="G2" s="69" t="s">
+        <v>158</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>51</v>
@@ -2501,50 +3165,56 @@
       <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="60" t="s">
-        <v>109</v>
+      <c r="K2" s="67" t="s">
+        <v>155</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="409.5">
+        <v>105</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="S2" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="U2" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="X2" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y2" s="77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="409.5">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>18</v>
@@ -2552,11 +3222,11 @@
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>118</v>
+      <c r="F3" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>51</v>
@@ -2567,36 +3237,36 @@
       <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="57" t="s">
-        <v>91</v>
+      <c r="K3" s="67" t="s">
+        <v>88</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="N3" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>105</v>
       </c>
       <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="1:23" ht="100" customHeight="1">
+    <row r="4" spans="1:25" ht="100" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="F4" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>119</v>
+      <c r="F4" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>51</v>
@@ -2607,22 +3277,22 @@
       <c r="J4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="60" t="s">
-        <v>121</v>
+      <c r="K4" s="67" t="s">
+        <v>157</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="1:23" ht="196">
+    <row r="5" spans="1:25" ht="196">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -2630,8 +3300,8 @@
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>148</v>
+      <c r="G5" s="69" t="s">
+        <v>161</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>51</v>
@@ -2643,36 +3313,48 @@
         <v>20</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="O5" s="60" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="60" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="R5" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="196">
+        <v>110</v>
+      </c>
+      <c r="S5" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="T5" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="U5" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="V5" s="5">
+        <v>333335</v>
+      </c>
+      <c r="W5" s="77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="196">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -2680,8 +3362,8 @@
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="61" t="s">
-        <v>147</v>
+      <c r="G6" s="69" t="s">
+        <v>162</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>51</v>
@@ -2693,36 +3375,48 @@
         <v>28</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="66" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="O6" s="60" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="S6" s="60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="196">
+        <v>115</v>
+      </c>
+      <c r="T6" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="U6" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="V6" s="5">
+        <v>333336</v>
+      </c>
+      <c r="W6" s="77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="196">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>30</v>
@@ -2730,8 +3424,8 @@
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="61" t="s">
-        <v>145</v>
+      <c r="G7" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>51</v>
@@ -2743,42 +3437,54 @@
         <v>20</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="66" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="60" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>180</v>
       </c>
       <c r="R7" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="S7" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="210">
+        <v>120</v>
+      </c>
+      <c r="S7" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="T7" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="U7" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="W7" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="X7" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="210">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
@@ -2786,8 +3492,8 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="61" t="s">
-        <v>144</v>
+      <c r="G8" s="69" t="s">
+        <v>164</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>51</v>
@@ -2799,36 +3505,48 @@
         <v>17</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="66" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P8" s="60" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="R8" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="196">
+        <v>124</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="S8" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="T8" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="U8" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="V8" s="5">
+        <v>833334</v>
+      </c>
+      <c r="W8" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="196">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>74</v>
+      <c r="B9" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>33</v>
@@ -2836,8 +3554,8 @@
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="61" t="s">
-        <v>149</v>
+      <c r="G9" s="69" t="s">
+        <v>165</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>51</v>
@@ -2849,36 +3567,48 @@
         <v>17</v>
       </c>
       <c r="K9" s="60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>157</v>
+        <v>129</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>205</v>
       </c>
       <c r="Q9" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="182">
+        <v>127</v>
+      </c>
+      <c r="R9" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="U9" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="V9" s="5">
+        <v>333333</v>
+      </c>
+      <c r="W9" s="77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="182">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>36</v>
@@ -2886,8 +3616,8 @@
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="61" t="s">
-        <v>161</v>
+      <c r="G10" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>51</v>
@@ -2899,42 +3629,54 @@
         <v>20</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N10" s="66" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="R10" s="58" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="S10" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="58" t="s">
-        <v>170</v>
+        <v>134</v>
+      </c>
+      <c r="T10" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="U10" s="60" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="196">
+        <v>136</v>
+      </c>
+      <c r="V10" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="W10" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="X10" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y10" s="77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="196">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>76</v>
+      <c r="B11" s="70" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>37</v>
@@ -2942,8 +3684,8 @@
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>171</v>
+      <c r="G11" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>51</v>
@@ -2955,42 +3697,54 @@
         <v>17</v>
       </c>
       <c r="K11" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="66" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="O11" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="P11" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="R11" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="T11" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="71" t="s">
         <v>178</v>
       </c>
+      <c r="R11" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="S11" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" s="72" t="s">
+        <v>209</v>
+      </c>
       <c r="U11" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="196">
+        <v>140</v>
+      </c>
+      <c r="V11" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="W11" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="X11" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="196">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>38</v>
@@ -2998,8 +3752,8 @@
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="61" t="s">
-        <v>179</v>
+      <c r="G12" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>51</v>
@@ -3011,42 +3765,54 @@
         <v>20</v>
       </c>
       <c r="K12" s="60" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N12" s="66" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="O12" s="60" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="P12" s="60" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="60" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="T12" s="58" t="s">
-        <v>200</v>
+        <v>146</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>194</v>
       </c>
       <c r="U12" s="60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="196">
+        <v>150</v>
+      </c>
+      <c r="V12" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="W12" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="X12" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y12" s="77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="196">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -3054,8 +3820,8 @@
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="61" t="s">
-        <v>179</v>
+      <c r="G13" s="69" t="s">
+        <v>169</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>51</v>
@@ -3067,46 +3833,52 @@
         <v>17</v>
       </c>
       <c r="K13" s="60" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="O13" s="60" t="s">
-        <v>197</v>
+      <c r="N13" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="O13" s="71" t="s">
+        <v>172</v>
       </c>
       <c r="P13" s="60"/>
-      <c r="Q13" s="60" t="s">
-        <v>191</v>
+      <c r="Q13" s="71" t="s">
+        <v>173</v>
       </c>
       <c r="R13" s="58"/>
-      <c r="S13" s="60" t="s">
-        <v>192</v>
+      <c r="S13" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="T13" s="58"/>
-      <c r="U13" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="W13" s="60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="196">
+      <c r="U13" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="W13" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="X13" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y13" s="77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="196">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>79</v>
+      <c r="B14" s="70" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="G14" s="61" t="s">
-        <v>195</v>
+      <c r="G14" s="69" t="s">
+        <v>170</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>51</v>
@@ -3118,36 +3890,42 @@
         <v>20</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N14" s="66" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P14" s="60" t="s">
-        <v>201</v>
+        <v>152</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>193</v>
       </c>
       <c r="Q14" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="R14" s="58" t="s">
-        <v>203</v>
+        <v>153</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>238</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="364">
+        <v>154</v>
+      </c>
+      <c r="T14" s="5">
+        <v>83333</v>
+      </c>
+      <c r="U14" s="77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="364">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>41</v>
@@ -3173,12 +3951,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="364">
+    <row r="16" spans="1:25" ht="364">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>42</v>
@@ -3204,12 +3982,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="378">
+    <row r="17" spans="1:25" ht="378">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>44</v>
@@ -3235,12 +4013,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="364">
+    <row r="18" spans="1:25" ht="364">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>45</v>
@@ -3266,12 +4044,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="364">
+    <row r="19" spans="1:25" ht="364">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>47</v>
@@ -3297,12 +4075,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="378">
+    <row r="20" spans="1:25" ht="378">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>48</v>
@@ -3328,12 +4106,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="95" customHeight="1">
+    <row r="21" spans="1:25" ht="95" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>49</v>
@@ -3359,7 +4137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="17.5">
+    <row r="22" spans="1:25" ht="17.5">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="29"/>
@@ -3377,7 +4155,7 @@
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
     </row>
-    <row r="23" spans="1:19" ht="17.5">
+    <row r="23" spans="1:25" ht="17.5">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="29"/>
@@ -3395,7 +4173,7 @@
       <c r="O23" s="44"/>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="1:19" ht="17.5">
+    <row r="24" spans="1:25" ht="17.5">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="36"/>
@@ -3413,7 +4191,7 @@
       <c r="O24" s="44"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:19" ht="17.5">
+    <row r="25" spans="1:25" ht="17.5">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="36"/>
@@ -3431,7 +4209,7 @@
       <c r="O25" s="44"/>
       <c r="P25" s="44"/>
     </row>
-    <row r="26" spans="1:19" ht="17.5">
+    <row r="26" spans="1:25" ht="17.5">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="36"/>
@@ -3446,7 +4224,7 @@
       <c r="L26" s="32"/>
       <c r="M26" s="35"/>
     </row>
-    <row r="27" spans="1:19" s="22" customFormat="1" ht="144.5" customHeight="1">
+    <row r="27" spans="1:25" s="22" customFormat="1" ht="144.5" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="36"/>
@@ -3465,8 +4243,12 @@
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="S27" s="23"/>
-    </row>
-    <row r="28" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="23"/>
+    </row>
+    <row r="28" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="36"/>
@@ -3485,8 +4267,12 @@
       <c r="P28" s="64"/>
       <c r="Q28" s="23"/>
       <c r="S28" s="23"/>
-    </row>
-    <row r="29" spans="1:19" s="22" customFormat="1" ht="127.5" customHeight="1">
+      <c r="U28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="23"/>
+    </row>
+    <row r="29" spans="1:25" s="22" customFormat="1" ht="127.5" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
@@ -3505,8 +4291,12 @@
       <c r="P29" s="44"/>
       <c r="Q29" s="23"/>
       <c r="S29" s="23"/>
-    </row>
-    <row r="30" spans="1:19" s="22" customFormat="1" ht="93" customHeight="1">
+      <c r="U29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="23"/>
+    </row>
+    <row r="30" spans="1:25" s="22" customFormat="1" ht="93" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="36"/>
@@ -3525,8 +4315,12 @@
       <c r="P30" s="65"/>
       <c r="Q30" s="23"/>
       <c r="S30" s="23"/>
-    </row>
-    <row r="31" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="23"/>
+    </row>
+    <row r="31" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="29"/>
@@ -3545,8 +4339,12 @@
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
       <c r="S31" s="23"/>
-    </row>
-    <row r="32" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="23"/>
+    </row>
+    <row r="32" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="40"/>
@@ -3565,8 +4363,12 @@
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="S32" s="23"/>
-    </row>
-    <row r="33" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="23"/>
+    </row>
+    <row r="33" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="40"/>
@@ -3585,8 +4387,12 @@
       <c r="P33" s="23"/>
       <c r="Q33" s="23"/>
       <c r="S33" s="23"/>
-    </row>
-    <row r="34" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="23"/>
+    </row>
+    <row r="34" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="40"/>
@@ -3605,8 +4411,12 @@
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
       <c r="S34" s="23"/>
-    </row>
-    <row r="35" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="23"/>
+    </row>
+    <row r="35" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="40"/>
@@ -3625,8 +4435,12 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
       <c r="S35" s="23"/>
-    </row>
-    <row r="36" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="23"/>
+    </row>
+    <row r="36" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="40"/>
@@ -3645,8 +4459,12 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="S36" s="23"/>
-    </row>
-    <row r="37" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="23"/>
+    </row>
+    <row r="37" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="40"/>
@@ -3665,8 +4483,12 @@
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="S37" s="23"/>
-    </row>
-    <row r="38" spans="1:19" s="22" customFormat="1" ht="110" customHeight="1">
+      <c r="U37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="23"/>
+    </row>
+    <row r="38" spans="1:25" s="22" customFormat="1" ht="110" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="40"/>
@@ -3685,8 +4507,12 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="S38" s="23"/>
-    </row>
-    <row r="39" spans="1:19" ht="17.5">
+      <c r="U38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="23"/>
+    </row>
+    <row r="39" spans="1:25" ht="17.5">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="36"/>
@@ -3701,7 +4527,7 @@
       <c r="L39" s="32"/>
       <c r="M39" s="35"/>
     </row>
-    <row r="40" spans="1:19" ht="17.5">
+    <row r="40" spans="1:25" ht="17.5">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="36"/>
@@ -3716,7 +4542,7 @@
       <c r="L40" s="32"/>
       <c r="M40" s="35"/>
     </row>
-    <row r="41" spans="1:19" ht="17.5">
+    <row r="41" spans="1:25" ht="17.5">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="36"/>
@@ -3731,7 +4557,7 @@
       <c r="L41" s="32"/>
       <c r="M41" s="35"/>
     </row>
-    <row r="42" spans="1:19" ht="17.5">
+    <row r="42" spans="1:25" ht="17.5">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="36"/>
@@ -3746,7 +4572,7 @@
       <c r="L42" s="32"/>
       <c r="M42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="17.5">
+    <row r="43" spans="1:25" ht="17.5">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="36"/>
@@ -3761,7 +4587,7 @@
       <c r="L43" s="32"/>
       <c r="M43" s="35"/>
     </row>
-    <row r="44" spans="1:19" ht="17.5">
+    <row r="44" spans="1:25" ht="17.5">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="36"/>
@@ -3776,7 +4602,7 @@
       <c r="L44" s="32"/>
       <c r="M44" s="35"/>
     </row>
-    <row r="45" spans="1:19" ht="167" customHeight="1">
+    <row r="45" spans="1:25" ht="167" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="36"/>
@@ -3791,7 +4617,7 @@
       <c r="L45" s="32"/>
       <c r="M45" s="39"/>
     </row>
-    <row r="46" spans="1:19" ht="207.5" customHeight="1">
+    <row r="46" spans="1:25" ht="207.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="36"/>
@@ -3806,7 +4632,7 @@
       <c r="L46" s="32"/>
       <c r="M46" s="35"/>
     </row>
-    <row r="47" spans="1:19" ht="17.5">
+    <row r="47" spans="1:25" ht="17.5">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="36"/>
@@ -3821,7 +4647,7 @@
       <c r="L47" s="32"/>
       <c r="M47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="22" customFormat="1" ht="17.5">
+    <row r="48" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="36"/>
@@ -3840,8 +4666,12 @@
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
       <c r="S48" s="23"/>
-    </row>
-    <row r="49" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="23"/>
+    </row>
+    <row r="49" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="36"/>
@@ -3860,8 +4690,12 @@
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="S49" s="23"/>
-    </row>
-    <row r="50" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="23"/>
+    </row>
+    <row r="50" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="36"/>
@@ -3880,8 +4714,12 @@
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
       <c r="S50" s="23"/>
-    </row>
-    <row r="51" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="23"/>
+    </row>
+    <row r="51" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="36"/>
@@ -3900,8 +4738,12 @@
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
       <c r="S51" s="23"/>
-    </row>
-    <row r="52" spans="1:19" ht="17.5">
+      <c r="U51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="23"/>
+    </row>
+    <row r="52" spans="1:25" ht="17.5">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="36"/>
@@ -3916,7 +4758,7 @@
       <c r="L52" s="32"/>
       <c r="M52" s="39"/>
     </row>
-    <row r="53" spans="1:19" ht="17.5">
+    <row r="53" spans="1:25" ht="17.5">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="36"/>
@@ -3931,7 +4773,7 @@
       <c r="L53" s="32"/>
       <c r="M53" s="43"/>
     </row>
-    <row r="54" spans="1:19" ht="17.5">
+    <row r="54" spans="1:25" ht="17.5">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="36"/>
@@ -3946,7 +4788,7 @@
       <c r="L54" s="32"/>
       <c r="M54" s="43"/>
     </row>
-    <row r="55" spans="1:19" ht="114.5" customHeight="1">
+    <row r="55" spans="1:25" ht="114.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="40"/>
@@ -3961,7 +4803,7 @@
       <c r="L55" s="42"/>
       <c r="M55" s="43"/>
     </row>
-    <row r="56" spans="1:19" ht="119" customHeight="1">
+    <row r="56" spans="1:25" ht="119" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="40"/>
@@ -3976,7 +4818,7 @@
       <c r="L56" s="42"/>
       <c r="M56" s="43"/>
     </row>
-    <row r="57" spans="1:19" ht="169.5" customHeight="1">
+    <row r="57" spans="1:25" ht="169.5" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="49"/>
@@ -3991,7 +4833,7 @@
       <c r="L57" s="32"/>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="1:19" ht="17.5">
+    <row r="58" spans="1:25" ht="17.5">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="36"/>
@@ -4006,7 +4848,7 @@
       <c r="L58" s="32"/>
       <c r="M58" s="35"/>
     </row>
-    <row r="59" spans="1:19" ht="17.5">
+    <row r="59" spans="1:25" ht="17.5">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="40"/>
@@ -4021,7 +4863,7 @@
       <c r="L59" s="32"/>
       <c r="M59" s="35"/>
     </row>
-    <row r="60" spans="1:19" ht="17.5">
+    <row r="60" spans="1:25" ht="17.5">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="40"/>
@@ -4036,7 +4878,7 @@
       <c r="L60" s="32"/>
       <c r="M60" s="35"/>
     </row>
-    <row r="61" spans="1:19" ht="17.5">
+    <row r="61" spans="1:25" ht="17.5">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="40"/>
@@ -4051,7 +4893,7 @@
       <c r="L61" s="32"/>
       <c r="M61" s="35"/>
     </row>
-    <row r="62" spans="1:19" ht="105" customHeight="1">
+    <row r="62" spans="1:25" ht="105" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="40"/>
@@ -4066,7 +4908,7 @@
       <c r="L62" s="32"/>
       <c r="M62" s="35"/>
     </row>
-    <row r="63" spans="1:19" ht="17.5">
+    <row r="63" spans="1:25" ht="17.5">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="36"/>
@@ -4081,7 +4923,7 @@
       <c r="L63" s="32"/>
       <c r="M63" s="35"/>
     </row>
-    <row r="64" spans="1:19" ht="116.5" customHeight="1">
+    <row r="64" spans="1:25" ht="116.5" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="36"/>
@@ -4096,7 +4938,7 @@
       <c r="L64" s="32"/>
       <c r="M64" s="35"/>
     </row>
-    <row r="65" spans="1:19" ht="17.5">
+    <row r="65" spans="1:25" ht="17.5">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="36"/>
@@ -4111,7 +4953,7 @@
       <c r="L65" s="32"/>
       <c r="M65" s="35"/>
     </row>
-    <row r="66" spans="1:19" ht="17.5">
+    <row r="66" spans="1:25" ht="17.5">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="36"/>
@@ -4126,7 +4968,7 @@
       <c r="L66" s="32"/>
       <c r="M66" s="35"/>
     </row>
-    <row r="67" spans="1:19" ht="17.5">
+    <row r="67" spans="1:25" ht="17.5">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="36"/>
@@ -4141,7 +4983,7 @@
       <c r="L67" s="32"/>
       <c r="M67" s="35"/>
     </row>
-    <row r="68" spans="1:19" ht="117.5" customHeight="1">
+    <row r="68" spans="1:25" ht="117.5" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="36"/>
@@ -4156,7 +4998,7 @@
       <c r="L68" s="32"/>
       <c r="M68" s="35"/>
     </row>
-    <row r="69" spans="1:19" ht="17.5">
+    <row r="69" spans="1:25" ht="17.5">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="36"/>
@@ -4171,7 +5013,7 @@
       <c r="L69" s="32"/>
       <c r="M69" s="35"/>
     </row>
-    <row r="70" spans="1:19" s="22" customFormat="1" ht="17.5">
+    <row r="70" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="36"/>
@@ -4190,8 +5032,12 @@
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
       <c r="S70" s="23"/>
-    </row>
-    <row r="71" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="23"/>
+    </row>
+    <row r="71" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="36"/>
@@ -4210,8 +5056,12 @@
       <c r="P71" s="23"/>
       <c r="Q71" s="23"/>
       <c r="S71" s="23"/>
-    </row>
-    <row r="72" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="23"/>
+    </row>
+    <row r="72" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="36"/>
@@ -4230,8 +5080,12 @@
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
       <c r="S72" s="23"/>
-    </row>
-    <row r="73" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="23"/>
+    </row>
+    <row r="73" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="36"/>
@@ -4250,8 +5104,12 @@
       <c r="P73" s="23"/>
       <c r="Q73" s="23"/>
       <c r="S73" s="23"/>
-    </row>
-    <row r="74" spans="1:19" s="22" customFormat="1" ht="125" customHeight="1">
+      <c r="U73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="23"/>
+    </row>
+    <row r="74" spans="1:25" s="22" customFormat="1" ht="125" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="36"/>
@@ -4270,8 +5128,12 @@
       <c r="P74" s="23"/>
       <c r="Q74" s="23"/>
       <c r="S74" s="23"/>
-    </row>
-    <row r="75" spans="1:19" s="22" customFormat="1" ht="166.5" customHeight="1">
+      <c r="U74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="23"/>
+    </row>
+    <row r="75" spans="1:25" s="22" customFormat="1" ht="166.5" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="36"/>
@@ -4290,8 +5152,12 @@
       <c r="P75" s="23"/>
       <c r="Q75" s="23"/>
       <c r="S75" s="23"/>
-    </row>
-    <row r="76" spans="1:19" s="22" customFormat="1" ht="110.5" customHeight="1">
+      <c r="U75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="23"/>
+    </row>
+    <row r="76" spans="1:25" s="22" customFormat="1" ht="110.5" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="36"/>
@@ -4310,8 +5176,12 @@
       <c r="P76" s="23"/>
       <c r="Q76" s="23"/>
       <c r="S76" s="23"/>
-    </row>
-    <row r="77" spans="1:19" s="22" customFormat="1" ht="131" customHeight="1">
+      <c r="U76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="23"/>
+    </row>
+    <row r="77" spans="1:25" s="22" customFormat="1" ht="131" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="40"/>
@@ -4330,8 +5200,12 @@
       <c r="P77" s="23"/>
       <c r="Q77" s="23"/>
       <c r="S77" s="23"/>
-    </row>
-    <row r="78" spans="1:19" s="22" customFormat="1" ht="141" customHeight="1">
+      <c r="U77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="23"/>
+    </row>
+    <row r="78" spans="1:25" s="22" customFormat="1" ht="141" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="40"/>
@@ -4350,8 +5224,12 @@
       <c r="P78" s="23"/>
       <c r="Q78" s="23"/>
       <c r="S78" s="23"/>
-    </row>
-    <row r="79" spans="1:19" s="22" customFormat="1" ht="118.5" customHeight="1">
+      <c r="U78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="23"/>
+    </row>
+    <row r="79" spans="1:25" s="22" customFormat="1" ht="118.5" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="40"/>
@@ -4370,8 +5248,12 @@
       <c r="P79" s="23"/>
       <c r="Q79" s="23"/>
       <c r="S79" s="23"/>
-    </row>
-    <row r="80" spans="1:19" s="22" customFormat="1" ht="123" customHeight="1">
+      <c r="U79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="23"/>
+    </row>
+    <row r="80" spans="1:25" s="22" customFormat="1" ht="123" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="40"/>
@@ -4390,8 +5272,12 @@
       <c r="P80" s="23"/>
       <c r="Q80" s="23"/>
       <c r="S80" s="23"/>
-    </row>
-    <row r="81" spans="1:19" s="22" customFormat="1" ht="148.5" customHeight="1">
+      <c r="U80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="23"/>
+    </row>
+    <row r="81" spans="1:25" s="22" customFormat="1" ht="148.5" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="40"/>
@@ -4410,8 +5296,12 @@
       <c r="P81" s="23"/>
       <c r="Q81" s="23"/>
       <c r="S81" s="23"/>
-    </row>
-    <row r="82" spans="1:19" s="22" customFormat="1" ht="191.5" customHeight="1">
+      <c r="U81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="23"/>
+    </row>
+    <row r="82" spans="1:25" s="22" customFormat="1" ht="191.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="40"/>
@@ -4430,8 +5320,12 @@
       <c r="P82" s="23"/>
       <c r="Q82" s="23"/>
       <c r="S82" s="23"/>
-    </row>
-    <row r="83" spans="1:19" s="22" customFormat="1" ht="128" customHeight="1">
+      <c r="U82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="23"/>
+    </row>
+    <row r="83" spans="1:25" s="22" customFormat="1" ht="128" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="40"/>
@@ -4450,8 +5344,12 @@
       <c r="P83" s="23"/>
       <c r="Q83" s="23"/>
       <c r="S83" s="23"/>
-    </row>
-    <row r="84" spans="1:19" s="22" customFormat="1" ht="96.5" customHeight="1">
+      <c r="U83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="23"/>
+    </row>
+    <row r="84" spans="1:25" s="22" customFormat="1" ht="96.5" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="40"/>
@@ -4470,8 +5368,12 @@
       <c r="P84" s="23"/>
       <c r="Q84" s="23"/>
       <c r="S84" s="23"/>
-    </row>
-    <row r="85" spans="1:19" s="22" customFormat="1" ht="100.5" customHeight="1">
+      <c r="U84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="23"/>
+    </row>
+    <row r="85" spans="1:25" s="22" customFormat="1" ht="100.5" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="40"/>
@@ -4490,8 +5392,12 @@
       <c r="P85" s="23"/>
       <c r="Q85" s="23"/>
       <c r="S85" s="23"/>
-    </row>
-    <row r="86" spans="1:19" s="22" customFormat="1" ht="156.5" customHeight="1">
+      <c r="U85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="23"/>
+    </row>
+    <row r="86" spans="1:25" s="22" customFormat="1" ht="156.5" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="40"/>
@@ -4510,8 +5416,12 @@
       <c r="P86" s="23"/>
       <c r="Q86" s="23"/>
       <c r="S86" s="23"/>
-    </row>
-    <row r="87" spans="1:19" s="22" customFormat="1" ht="111" customHeight="1">
+      <c r="U86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="23"/>
+    </row>
+    <row r="87" spans="1:25" s="22" customFormat="1" ht="111" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="40"/>
@@ -4530,8 +5440,12 @@
       <c r="P87" s="23"/>
       <c r="Q87" s="23"/>
       <c r="S87" s="23"/>
-    </row>
-    <row r="88" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="23"/>
+    </row>
+    <row r="88" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="40"/>
@@ -4550,8 +5464,12 @@
       <c r="P88" s="23"/>
       <c r="Q88" s="23"/>
       <c r="S88" s="23"/>
-    </row>
-    <row r="89" spans="1:19" s="22" customFormat="1" ht="161.5" customHeight="1">
+      <c r="U88" s="23"/>
+      <c r="W88" s="23"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="23"/>
+    </row>
+    <row r="89" spans="1:25" s="22" customFormat="1" ht="161.5" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="40"/>
@@ -4570,8 +5488,12 @@
       <c r="P89" s="23"/>
       <c r="Q89" s="23"/>
       <c r="S89" s="23"/>
-    </row>
-    <row r="90" spans="1:19" s="22" customFormat="1" ht="154.5" customHeight="1">
+      <c r="U89" s="23"/>
+      <c r="W89" s="23"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="23"/>
+    </row>
+    <row r="90" spans="1:25" s="22" customFormat="1" ht="154.5" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="40"/>
@@ -4590,8 +5512,12 @@
       <c r="P90" s="23"/>
       <c r="Q90" s="23"/>
       <c r="S90" s="23"/>
-    </row>
-    <row r="91" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U90" s="23"/>
+      <c r="W90" s="23"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="23"/>
+    </row>
+    <row r="91" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="40"/>
@@ -4610,8 +5536,12 @@
       <c r="P91" s="23"/>
       <c r="Q91" s="23"/>
       <c r="S91" s="23"/>
-    </row>
-    <row r="92" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="23"/>
+    </row>
+    <row r="92" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="40"/>
@@ -4630,8 +5560,12 @@
       <c r="P92" s="23"/>
       <c r="Q92" s="23"/>
       <c r="S92" s="23"/>
-    </row>
-    <row r="93" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="23"/>
+    </row>
+    <row r="93" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="40"/>
@@ -4650,8 +5584,12 @@
       <c r="P93" s="23"/>
       <c r="Q93" s="23"/>
       <c r="S93" s="23"/>
-    </row>
-    <row r="94" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U93" s="23"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="23"/>
+    </row>
+    <row r="94" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="40"/>
@@ -4670,8 +5608,12 @@
       <c r="P94" s="23"/>
       <c r="Q94" s="23"/>
       <c r="S94" s="23"/>
-    </row>
-    <row r="95" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U94" s="23"/>
+      <c r="W94" s="23"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="23"/>
+    </row>
+    <row r="95" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="40"/>
@@ -4690,8 +5632,12 @@
       <c r="P95" s="23"/>
       <c r="Q95" s="23"/>
       <c r="S95" s="23"/>
-    </row>
-    <row r="96" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U95" s="23"/>
+      <c r="W95" s="23"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="23"/>
+    </row>
+    <row r="96" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="36"/>
@@ -4710,8 +5656,12 @@
       <c r="P96" s="23"/>
       <c r="Q96" s="23"/>
       <c r="S96" s="23"/>
-    </row>
-    <row r="97" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U96" s="23"/>
+      <c r="W96" s="23"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="23"/>
+    </row>
+    <row r="97" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="36"/>
@@ -4730,8 +5680,12 @@
       <c r="P97" s="23"/>
       <c r="Q97" s="23"/>
       <c r="S97" s="23"/>
-    </row>
-    <row r="98" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U97" s="23"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="23"/>
+    </row>
+    <row r="98" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="36"/>
@@ -4750,8 +5704,12 @@
       <c r="P98" s="23"/>
       <c r="Q98" s="23"/>
       <c r="S98" s="23"/>
-    </row>
-    <row r="99" spans="1:19" s="22" customFormat="1" ht="204" customHeight="1">
+      <c r="U98" s="23"/>
+      <c r="W98" s="23"/>
+      <c r="X98" s="21"/>
+      <c r="Y98" s="23"/>
+    </row>
+    <row r="99" spans="1:25" s="22" customFormat="1" ht="204" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="36"/>
@@ -4770,8 +5728,12 @@
       <c r="P99" s="23"/>
       <c r="Q99" s="23"/>
       <c r="S99" s="23"/>
-    </row>
-    <row r="100" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="23"/>
+    </row>
+    <row r="100" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="36"/>
@@ -4790,8 +5752,12 @@
       <c r="P100" s="23"/>
       <c r="Q100" s="23"/>
       <c r="S100" s="23"/>
-    </row>
-    <row r="101" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="23"/>
+    </row>
+    <row r="101" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="36"/>
@@ -4810,8 +5776,12 @@
       <c r="P101" s="23"/>
       <c r="Q101" s="23"/>
       <c r="S101" s="23"/>
-    </row>
-    <row r="102" spans="1:19" ht="17.5">
+      <c r="U101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="23"/>
+    </row>
+    <row r="102" spans="1:25" ht="17.5">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="36"/>
@@ -4826,7 +5796,7 @@
       <c r="L102" s="32"/>
       <c r="M102" s="35"/>
     </row>
-    <row r="103" spans="1:19" ht="158.5" customHeight="1">
+    <row r="103" spans="1:25" ht="158.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="36"/>
@@ -4841,7 +5811,7 @@
       <c r="L103" s="32"/>
       <c r="M103" s="35"/>
     </row>
-    <row r="104" spans="1:19" ht="17.5">
+    <row r="104" spans="1:25" ht="17.5">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="36"/>
@@ -4856,7 +5826,7 @@
       <c r="L104" s="32"/>
       <c r="M104" s="39"/>
     </row>
-    <row r="105" spans="1:19" ht="91.75" customHeight="1">
+    <row r="105" spans="1:25" ht="91.75" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="36"/>
@@ -4871,7 +5841,7 @@
       <c r="L105" s="32"/>
       <c r="M105" s="39"/>
     </row>
-    <row r="106" spans="1:19" ht="165" customHeight="1">
+    <row r="106" spans="1:25" ht="165" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="36"/>
@@ -4886,7 +5856,7 @@
       <c r="L106" s="50"/>
       <c r="M106" s="51"/>
     </row>
-    <row r="107" spans="1:19" ht="108" customHeight="1">
+    <row r="107" spans="1:25" ht="108" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="36"/>
@@ -4901,7 +5871,7 @@
       <c r="L107" s="32"/>
       <c r="M107" s="43"/>
     </row>
-    <row r="108" spans="1:19" ht="101" customHeight="1">
+    <row r="108" spans="1:25" ht="101" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="36"/>
@@ -4916,7 +5886,7 @@
       <c r="L108" s="32"/>
       <c r="M108" s="43"/>
     </row>
-    <row r="109" spans="1:19" ht="88" customHeight="1">
+    <row r="109" spans="1:25" ht="88" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="40"/>
@@ -4931,7 +5901,7 @@
       <c r="L109" s="42"/>
       <c r="M109" s="43"/>
     </row>
-    <row r="110" spans="1:19" ht="98" customHeight="1">
+    <row r="110" spans="1:25" ht="98" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="40"/>
@@ -4946,7 +5916,7 @@
       <c r="L110" s="42"/>
       <c r="M110" s="43"/>
     </row>
-    <row r="111" spans="1:19" ht="156" customHeight="1">
+    <row r="111" spans="1:25" ht="156" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="40"/>
@@ -4961,7 +5931,7 @@
       <c r="L111" s="32"/>
       <c r="M111" s="35"/>
     </row>
-    <row r="112" spans="1:19" ht="172.5" customHeight="1">
+    <row r="112" spans="1:25" ht="172.5" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="40"/>
@@ -5456,7 +6426,7 @@
       <c r="L144" s="42"/>
       <c r="M144" s="43"/>
     </row>
-    <row r="145" spans="1:19" ht="17.5">
+    <row r="145" spans="1:25" ht="17.5">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="40"/>
@@ -5471,7 +6441,7 @@
       <c r="L145" s="42"/>
       <c r="M145" s="43"/>
     </row>
-    <row r="146" spans="1:19" ht="88" customHeight="1">
+    <row r="146" spans="1:25" ht="88" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="40"/>
@@ -5486,7 +6456,7 @@
       <c r="L146" s="42"/>
       <c r="M146" s="43"/>
     </row>
-    <row r="147" spans="1:19" s="22" customFormat="1" ht="17.5">
+    <row r="147" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="40"/>
@@ -5505,8 +6475,12 @@
       <c r="P147" s="23"/>
       <c r="Q147" s="23"/>
       <c r="S147" s="23"/>
-    </row>
-    <row r="148" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U147" s="23"/>
+      <c r="W147" s="23"/>
+      <c r="X147" s="21"/>
+      <c r="Y147" s="23"/>
+    </row>
+    <row r="148" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="40"/>
@@ -5525,8 +6499,12 @@
       <c r="P148" s="23"/>
       <c r="Q148" s="23"/>
       <c r="S148" s="23"/>
-    </row>
-    <row r="149" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U148" s="23"/>
+      <c r="W148" s="23"/>
+      <c r="X148" s="21"/>
+      <c r="Y148" s="23"/>
+    </row>
+    <row r="149" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="40"/>
@@ -5545,8 +6523,12 @@
       <c r="P149" s="23"/>
       <c r="Q149" s="23"/>
       <c r="S149" s="23"/>
-    </row>
-    <row r="150" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U149" s="23"/>
+      <c r="W149" s="23"/>
+      <c r="X149" s="21"/>
+      <c r="Y149" s="23"/>
+    </row>
+    <row r="150" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="36"/>
@@ -5565,8 +6547,12 @@
       <c r="P150" s="23"/>
       <c r="Q150" s="23"/>
       <c r="S150" s="23"/>
-    </row>
-    <row r="151" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U150" s="23"/>
+      <c r="W150" s="23"/>
+      <c r="X150" s="21"/>
+      <c r="Y150" s="23"/>
+    </row>
+    <row r="151" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="36"/>
@@ -5585,8 +6571,12 @@
       <c r="P151" s="23"/>
       <c r="Q151" s="23"/>
       <c r="S151" s="23"/>
-    </row>
-    <row r="152" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U151" s="23"/>
+      <c r="W151" s="23"/>
+      <c r="X151" s="21"/>
+      <c r="Y151" s="23"/>
+    </row>
+    <row r="152" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="36"/>
@@ -5605,8 +6595,12 @@
       <c r="P152" s="23"/>
       <c r="Q152" s="23"/>
       <c r="S152" s="23"/>
-    </row>
-    <row r="153" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U152" s="23"/>
+      <c r="W152" s="23"/>
+      <c r="X152" s="21"/>
+      <c r="Y152" s="23"/>
+    </row>
+    <row r="153" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="36"/>
@@ -5625,8 +6619,12 @@
       <c r="P153" s="23"/>
       <c r="Q153" s="23"/>
       <c r="S153" s="23"/>
-    </row>
-    <row r="154" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U153" s="23"/>
+      <c r="W153" s="23"/>
+      <c r="X153" s="21"/>
+      <c r="Y153" s="23"/>
+    </row>
+    <row r="154" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="40"/>
@@ -5645,8 +6643,12 @@
       <c r="P154" s="23"/>
       <c r="Q154" s="23"/>
       <c r="S154" s="23"/>
-    </row>
-    <row r="155" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U154" s="23"/>
+      <c r="W154" s="23"/>
+      <c r="X154" s="21"/>
+      <c r="Y154" s="23"/>
+    </row>
+    <row r="155" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="36"/>
@@ -5665,8 +6667,12 @@
       <c r="P155" s="23"/>
       <c r="Q155" s="23"/>
       <c r="S155" s="23"/>
-    </row>
-    <row r="156" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U155" s="23"/>
+      <c r="W155" s="23"/>
+      <c r="X155" s="21"/>
+      <c r="Y155" s="23"/>
+    </row>
+    <row r="156" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="49"/>
@@ -5685,8 +6691,12 @@
       <c r="P156" s="23"/>
       <c r="Q156" s="23"/>
       <c r="S156" s="23"/>
-    </row>
-    <row r="157" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U156" s="23"/>
+      <c r="W156" s="23"/>
+      <c r="X156" s="21"/>
+      <c r="Y156" s="23"/>
+    </row>
+    <row r="157" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="36"/>
@@ -5705,8 +6715,12 @@
       <c r="P157" s="23"/>
       <c r="Q157" s="23"/>
       <c r="S157" s="23"/>
-    </row>
-    <row r="158" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U157" s="23"/>
+      <c r="W157" s="23"/>
+      <c r="X157" s="21"/>
+      <c r="Y157" s="23"/>
+    </row>
+    <row r="158" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="36"/>
@@ -5725,8 +6739,12 @@
       <c r="P158" s="23"/>
       <c r="Q158" s="23"/>
       <c r="S158" s="23"/>
-    </row>
-    <row r="159" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U158" s="23"/>
+      <c r="W158" s="23"/>
+      <c r="X158" s="21"/>
+      <c r="Y158" s="23"/>
+    </row>
+    <row r="159" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="36"/>
@@ -5745,8 +6763,12 @@
       <c r="P159" s="23"/>
       <c r="Q159" s="23"/>
       <c r="S159" s="23"/>
-    </row>
-    <row r="160" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U159" s="23"/>
+      <c r="W159" s="23"/>
+      <c r="X159" s="21"/>
+      <c r="Y159" s="23"/>
+    </row>
+    <row r="160" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="36"/>
@@ -5765,8 +6787,12 @@
       <c r="P160" s="23"/>
       <c r="Q160" s="23"/>
       <c r="S160" s="23"/>
-    </row>
-    <row r="161" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U160" s="23"/>
+      <c r="W160" s="23"/>
+      <c r="X160" s="21"/>
+      <c r="Y160" s="23"/>
+    </row>
+    <row r="161" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="36"/>
@@ -5785,8 +6811,12 @@
       <c r="P161" s="23"/>
       <c r="Q161" s="23"/>
       <c r="S161" s="23"/>
-    </row>
-    <row r="162" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U161" s="23"/>
+      <c r="W161" s="23"/>
+      <c r="X161" s="21"/>
+      <c r="Y161" s="23"/>
+    </row>
+    <row r="162" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="36"/>
@@ -5805,8 +6835,12 @@
       <c r="P162" s="23"/>
       <c r="Q162" s="23"/>
       <c r="S162" s="23"/>
-    </row>
-    <row r="163" spans="1:19" s="22" customFormat="1" ht="145.25" customHeight="1">
+      <c r="U162" s="23"/>
+      <c r="W162" s="23"/>
+      <c r="X162" s="21"/>
+      <c r="Y162" s="23"/>
+    </row>
+    <row r="163" spans="1:25" s="22" customFormat="1" ht="145.25" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="36"/>
@@ -5825,8 +6859,12 @@
       <c r="P163" s="23"/>
       <c r="Q163" s="23"/>
       <c r="S163" s="23"/>
-    </row>
-    <row r="164" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U163" s="23"/>
+      <c r="W163" s="23"/>
+      <c r="X163" s="21"/>
+      <c r="Y163" s="23"/>
+    </row>
+    <row r="164" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="36"/>
@@ -5845,8 +6883,12 @@
       <c r="P164" s="23"/>
       <c r="Q164" s="23"/>
       <c r="S164" s="23"/>
-    </row>
-    <row r="165" spans="1:19" s="22" customFormat="1" ht="112.25" customHeight="1">
+      <c r="U164" s="23"/>
+      <c r="W164" s="23"/>
+      <c r="X164" s="21"/>
+      <c r="Y164" s="23"/>
+    </row>
+    <row r="165" spans="1:25" s="22" customFormat="1" ht="112.25" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="36"/>
@@ -5865,8 +6907,12 @@
       <c r="P165" s="23"/>
       <c r="Q165" s="23"/>
       <c r="S165" s="23"/>
-    </row>
-    <row r="166" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U165" s="23"/>
+      <c r="W165" s="23"/>
+      <c r="X165" s="21"/>
+      <c r="Y165" s="23"/>
+    </row>
+    <row r="166" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="36"/>
@@ -5885,8 +6931,12 @@
       <c r="P166" s="23"/>
       <c r="Q166" s="23"/>
       <c r="S166" s="23"/>
-    </row>
-    <row r="167" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U166" s="23"/>
+      <c r="W166" s="23"/>
+      <c r="X166" s="21"/>
+      <c r="Y166" s="23"/>
+    </row>
+    <row r="167" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="36"/>
@@ -5905,8 +6955,12 @@
       <c r="P167" s="23"/>
       <c r="Q167" s="23"/>
       <c r="S167" s="23"/>
-    </row>
-    <row r="168" spans="1:19" s="22" customFormat="1" ht="132.65" customHeight="1">
+      <c r="U167" s="23"/>
+      <c r="W167" s="23"/>
+      <c r="X167" s="21"/>
+      <c r="Y167" s="23"/>
+    </row>
+    <row r="168" spans="1:25" s="22" customFormat="1" ht="132.65" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="36"/>
@@ -5925,8 +6979,12 @@
       <c r="P168" s="23"/>
       <c r="Q168" s="23"/>
       <c r="S168" s="23"/>
-    </row>
-    <row r="169" spans="1:19" s="22" customFormat="1" ht="120.65" customHeight="1">
+      <c r="U168" s="23"/>
+      <c r="W168" s="23"/>
+      <c r="X168" s="21"/>
+      <c r="Y168" s="23"/>
+    </row>
+    <row r="169" spans="1:25" s="22" customFormat="1" ht="120.65" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="36"/>
@@ -5945,8 +7003,12 @@
       <c r="P169" s="23"/>
       <c r="Q169" s="23"/>
       <c r="S169" s="23"/>
-    </row>
-    <row r="170" spans="1:19" s="22" customFormat="1" ht="17.5">
+      <c r="U169" s="23"/>
+      <c r="W169" s="23"/>
+      <c r="X169" s="21"/>
+      <c r="Y169" s="23"/>
+    </row>
+    <row r="170" spans="1:25" s="22" customFormat="1" ht="17.5">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="36"/>
@@ -5965,8 +7027,12 @@
       <c r="P170" s="23"/>
       <c r="Q170" s="23"/>
       <c r="S170" s="23"/>
-    </row>
-    <row r="171" spans="1:19" s="22" customFormat="1" ht="121.25" customHeight="1">
+      <c r="U170" s="23"/>
+      <c r="W170" s="23"/>
+      <c r="X170" s="21"/>
+      <c r="Y170" s="23"/>
+    </row>
+    <row r="171" spans="1:25" s="22" customFormat="1" ht="121.25" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="36"/>
@@ -5985,8 +7051,12 @@
       <c r="P171" s="23"/>
       <c r="Q171" s="23"/>
       <c r="S171" s="23"/>
-    </row>
-    <row r="172" spans="1:19" s="22" customFormat="1" ht="82.75" customHeight="1">
+      <c r="U171" s="23"/>
+      <c r="W171" s="23"/>
+      <c r="X171" s="21"/>
+      <c r="Y171" s="23"/>
+    </row>
+    <row r="172" spans="1:25" s="22" customFormat="1" ht="82.75" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="36"/>
@@ -6005,8 +7075,12 @@
       <c r="P172" s="23"/>
       <c r="Q172" s="23"/>
       <c r="S172" s="23"/>
-    </row>
-    <row r="173" spans="1:19" s="22" customFormat="1" ht="111" customHeight="1">
+      <c r="U172" s="23"/>
+      <c r="W172" s="23"/>
+      <c r="X172" s="21"/>
+      <c r="Y172" s="23"/>
+    </row>
+    <row r="173" spans="1:25" s="22" customFormat="1" ht="111" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="40"/>
@@ -6025,8 +7099,12 @@
       <c r="P173" s="23"/>
       <c r="Q173" s="23"/>
       <c r="S173" s="23"/>
-    </row>
-    <row r="174" spans="1:19" s="22" customFormat="1" ht="91.25" customHeight="1">
+      <c r="U173" s="23"/>
+      <c r="W173" s="23"/>
+      <c r="X173" s="21"/>
+      <c r="Y173" s="23"/>
+    </row>
+    <row r="174" spans="1:25" s="22" customFormat="1" ht="91.25" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="40"/>
@@ -6045,8 +7123,12 @@
       <c r="P174" s="23"/>
       <c r="Q174" s="23"/>
       <c r="S174" s="23"/>
-    </row>
-    <row r="175" spans="1:19" s="22" customFormat="1" ht="63.65" customHeight="1">
+      <c r="U174" s="23"/>
+      <c r="W174" s="23"/>
+      <c r="X174" s="21"/>
+      <c r="Y174" s="23"/>
+    </row>
+    <row r="175" spans="1:25" s="22" customFormat="1" ht="63.65" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="40"/>
@@ -6065,8 +7147,12 @@
       <c r="P175" s="23"/>
       <c r="Q175" s="23"/>
       <c r="S175" s="23"/>
-    </row>
-    <row r="176" spans="1:19" s="22" customFormat="1" ht="79.75" customHeight="1">
+      <c r="U175" s="23"/>
+      <c r="W175" s="23"/>
+      <c r="X175" s="21"/>
+      <c r="Y175" s="23"/>
+    </row>
+    <row r="176" spans="1:25" s="22" customFormat="1" ht="79.75" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="40"/>
@@ -6085,6 +7171,10 @@
       <c r="P176" s="23"/>
       <c r="Q176" s="23"/>
       <c r="S176" s="23"/>
+      <c r="U176" s="23"/>
+      <c r="W176" s="23"/>
+      <c r="X176" s="21"/>
+      <c r="Y176" s="23"/>
     </row>
     <row r="177" spans="1:16" ht="45.65" customHeight="1">
       <c r="A177" s="6"/>
@@ -6474,11 +7564,11 @@
       <c r="M200" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H21" r:id="rId2"/>
-    <hyperlink ref="R9" r:id="rId3"/>
+    <hyperlink ref="R9" r:id="rId3" display="3234***@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/target/classes/caseconf/userCreate/Case_userCreate.xlsx
+++ b/target/classes/caseconf/userCreate/Case_userCreate.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform-master-0429/src/main/resources/caseconf/userCreate/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="6720" yWindow="-19000" windowWidth="27860" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="userCreate" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,115 +145,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>用户创建成功</t>
     <rPh sb="0" eb="1">
       <t>yong'hu</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已存在</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId已存在</t>
     <rPh sb="14" eb="15">
       <t>yi'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传-手机号为空</t>
     <rPh sb="0" eb="1">
       <t>fei'bi'chuan</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -250,19 +253,19 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--证件号为空</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -270,30 +273,30 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--姓名为空</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--邮箱为空</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传-手机号缺少参数</t>
     <rPh sb="0" eb="1">
       <t>fei'bi'chuan</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -301,7 +304,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--证件号缺少参数</t>
@@ -311,19 +314,19 @@
     <rPh sb="10" eb="11">
       <t>can'shu</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--姓名缺少参数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--邮箱缺少参数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传字段都为空</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>非必传--组合4选2，3</t>
@@ -333,7 +336,7 @@
     <rPh sb="8" eb="9">
       <t>xuan</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -346,7 +349,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -359,7 +362,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -373,7 +376,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -386,7 +389,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -399,7 +402,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -412,7 +415,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -425,7 +428,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -438,7 +441,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-params</t>
@@ -451,15 +454,11 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/create</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -473,7 +472,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1001</t>
@@ -484,7 +482,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
@@ -497,7 +494,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -510,7 +507,7 @@
         "email":"1234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -524,7 +521,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1001</t>
@@ -535,14 +531,13 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
  "tenantUserId":"000111"
 }</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -551,7 +546,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'requestId': rejected value []; codes [NotBlank.userInfoByCreateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -560,7 +555,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantId': rejected value []; codes [NotEmpty.userInfoByCreateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -574,7 +569,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1001</t>
@@ -585,7 +579,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
@@ -598,7 +591,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -607,7 +600,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantUserId': rejected value []; codes [NotBlank.userInfoByCreateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -616,7 +609,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'requestId': rejected value [null]; codes [NotBlank.userInfoByCreateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -625,7 +618,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoByCreateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -639,7 +632,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1001</t>
@@ -650,7 +642,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
@@ -662,7 +653,7 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -671,7 +662,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.userInfoByCreateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -680,7 +671,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.create(***.web.request.UserInfoByCreateReq): [Field error in object 'userInfoByCreateReq' on field 'params': rejected value [null]; codes [NotNull.userInfoByCreateReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByCreateReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -695,7 +686,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -706,17 +696,16 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 }</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>userCreate-0001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>userCreate-0002</t>
@@ -781,6 +770,413 @@
     "resMsg": "用户已注册",
     "successful": 0
 }</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333335,certNo,5412**********0000</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333335,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333335,email,3234***@126.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333336,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333336,email,8834***@126.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333336,mobileNo,155****9098</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335,mobileNo,135****9098</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>833334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833334,certNo,5434**********5432</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34,1</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>334,certNo,5412**********0000</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>334,email,3234***@126.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>334,name,李*</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,email,9834***@126.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"10018",
+ "tenantId": "1001",
+ "tenantUserId":"833330",
+ "params":{
+        "name":"李",
+        "mobileNo":"18966789098",
+        "certNo":"543456789098765432"
+        }
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>833330</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330,certNo,5434**********5432</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330,name,李</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,certNo,1234**********5432</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>533335,email,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9834***@126.com</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000111,name,小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000111,mobileNo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>188****4567</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000111,certNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3412**********0000</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>83333,mobileNo,189****9098</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330,mobileNo,189****9098</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,email,3234***@126.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333336,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335,certNo,1234**********5432</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833334,mobileNo,189****9098</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,certNo,5412**********0000</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>334,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,mobileNo,135****9098</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333335,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533335</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833334,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>333333,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>533333</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330,1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>83333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>833330</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>83333,certNo,5434**********5432</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -789,7 +1185,121 @@
     "resMsg": "请求重复",
     "successful": 1
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "requestId":"10015",
+ "tenantId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+ "tenantUserId":"833334",
+ "params":{
+        "name":"李",
+        "mobileNo":"18966789098",
+        "certNo":"543456789098765432",
+        "email":""
+        }
+}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"10009",
+ "tenantId": "1001",
+ "tenantUserId":"83333",
+ "params":{
+        "name":"",
+        "mobileNo":"18966789098",
+        "certNo":"543456789098765432",
+        "email":""
+        }
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "requestId":"10014",
+ "tenantId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001",
+ "tenantUserId":"533335",
+ "params":{
+        "name":"",
+        "mobileNo":"13566789098",
+        "certNo":"123456789098765432",
+        "email":"9834567@126.com"
+        }
+}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "requestId":"100011",
+ "tenantId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001",
+ "tenantUserId":"333333",
+ "params":{
+        "name":"李四",
+        "certNo":"541222199303040000",
+        "email":"3234567@126.com"
+        }
+}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"10016",
+ "tenantId": "1001",
+ "tenantUserId":"334",
+ "params":{
+        "name":"李四",
+        "certNo":"541222199303040000",
+        "email":"3234567@126.com"
+        }
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -802,7 +1312,96 @@
         "email":"9834567@126.com"
         }
 }</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "requestId":"100119",
+ "tenantId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001",
+ "tenantUserId":"833330",
+ "params":{
+        "name":"",
+        "mobileNo":"",
+        "certNo":"",
+        "email":""
+        }
+}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111,email,1234***@126.com</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已注册</t>
+    <rPh sb="3" eb="4">
+      <t>zhu'ce</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"2020",
+ "tenantId": "1001",
+ "tenantUserId":"000112",
+ "params":{
+        "name":"小明",
+        "mobileNo":"18899934567",
+        "certNo":"341222199303040000",
+        "email":"1234567@126.com"
+        }
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "requestId":"10013",
+ "tenantId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",
+ "tenantUserId":"333336",
+ "params":{
+        "name":"李五",        "mobileNo":"15566789098",
+        "certNo":"",      "email":"8834567@126.com"
+        }
+}</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -816,7 +1415,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1001",
@@ -826,7 +1424,287 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_request_serial (id,request_id,tenant_id,tenant_user_id,type,status,create_time,update_time) values (99900,2020,1001,0001,1,1,"2020-04-14 15:31:11","2020-04-14 15:31:11")</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id="20200326" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="000111"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000111" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000111" and tenant_id = "1001"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id ="000113";
+delete from user_info_item where tenant_user_id = "000113";
+delete from user_index where tenant_user_id ="000113" and tenant_id = "1001";
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id="2020" and id="99900";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = "100011" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="333333";
+delete from user_info_item where tenant_user_id = "333333";
+delete from user_index where tenant_user_id = "333333" and tenant_id ="1001"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_request_serial where request_id="10016" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="334";
+delete from user_info_item where tenant_user_id = "334";
+delete from user_index where tenant_user_id = "334" and tenant_id = "1001"
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_request_serial where request_id="10017" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="533333";
+delete from user_info_item where tenant_user_id = "533333";
+delete from user_index where tenant_user_id = "533333"
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="833330";
+delete from user_info_item where tenant_user_id = "833330";
+delete from user_index where tenant_user_id ="833330";
+delete from user_request_serial where request_id="10018" and tenant_id="1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id="100119" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="833330";
+delete from user_info_item where tenant_user_id = "833330";
+delete from user_index where tenant_user_id ="833330" and tenant_id = "1001"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id="10009" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="83333";
+delete from user_info_item where tenant_user_id = "83333";
+delete from user_index where tenant_user_id ="83333" and tenant_id = "1001"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="000111" and tenant_id = "1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="000111" and tenant_id = "1001" and key_name = "email";
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="000111" and tenant_id = "1001" and key_name = "name";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="000111" and tenant_id = "1001" and key_name = "mobileNo";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="000111" and tenant_id = "1001" and key_name = "certNo";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="000111" and tenant_id = "1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select tenant_user_id,status from user_basic_info where tenant_user_id =333333 and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = "1001" and key_name = "certNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = "1001" and key_name = "email";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333333 and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id =333333 and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="333335" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="333335" and tenant_id = "1001" and key_name = "certNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="333335" and tenant_id = "1001" and key_name = "email";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="333335" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="333335" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="333336" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="333336" and tenant_id = "1001" and key_name = "email"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="333336" and tenant_id = "1001" and key_name = "mobileNo"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="333336" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="533335" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="533335" and tenant_id = "1001" and key_name = "email";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="533335" and tenant_id = "1001" and key_name = "mobileNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="533335" and tenant_id = "1001" and key_name = "certNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="533335" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="533335" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="334" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = "334" and tenant_id = "1001" and key_name = "certNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = "334" and tenant_id = "1001" and key_name = "email";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = "334" and tenant_id = "1001" and key_name = "name";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="334" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="334" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="533333" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="533333" and tenant_id = "1001" and key_name = "email";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="533333" and tenant_id = "1001" and key_name = "certNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="533333" and tenant_id = "1001" and key_name = "mobileNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="533333" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="533333" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="833330" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="833330" and tenant_id = "1001" and key_name = "name";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="833330" and tenant_id = "1001" and key_name = "certNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="833330" and tenant_id = "1001" and key_name = "mobileNo";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="833330" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="833330" and tenant_id = "1001" and key_name = "email";</t>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="833330" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>select  tenant_user_id,status from user_basic_info where tenant_user_id ="83333" and tenant_id = "1001"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="83333" and tenant_id = "1001" and key_name = "mobileNo";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="83333" and tenant_id = "1001" and key_name = "certNo";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="83333" and tenant_id = "1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_request_serial where request_id="10013" and tenant_id="1001";
+delete from user_basic_info where tenant_user_id ="333336";
+delete from user_info_item where tenant_user_id = "333336";
+delete from user_index where tenant_user_id = "333336" and tenant_id = "1001";
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id="10014";
+delete from user_basic_info where tenant_user_id ="533335";
+delete from user_info_item where tenant_user_id = "533335";
+delete from user_index where tenant_user_id = "533335";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200326",
+ "tenantId": "1001",
+ "tenantUserId":"000111",
+ "params":{
+        "name":"小明",
+        "mobileNo":"18899934567",
+        "certNo":"341222199303040000",
+        "email":"1234567@126.com"
+        }
+}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -840,7 +1718,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1001</t>
@@ -851,7 +1728,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
@@ -864,1438 +1740,63 @@
         }
 }</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "requestId":"10015",
- "tenantId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
- "tenantUserId":"833334",
- "params":{
-        "name":"李",
-        "mobileNo":"18966789098",
-        "certNo":"543456789098765432",
-        "email":""
-        }
-}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "requestId":"10001",
- "tenantId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
- "tenantUserId":"333333",
- "params":{
-        "name":"李四",
-        "certNo":"541222199303040000",
-        "email":"3234567@126.com"
-        }
-}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"10009",
- "tenantId": "1001",
- "tenantUserId":"83333",
- "params":{
-        "name":"",
-        "mobileNo":"18966789098",
-        "certNo":"543456789098765432",
-        "email":""
-        }
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>000111,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =000111 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333335,certNo,5412**********0000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333335 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333335 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333335,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333335,email,3234***@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333336 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333336,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333336 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333336,email,8834***@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333336 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333336,mobileNo,155****9098</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533335 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "requestId":"10014",
- "tenantId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
- "tenantUserId":"5333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
- "params":{
-        "name":"",
-        "mobileNo":"13566789098",
-        "certNo":"123456789098765432",
-        "email":"9834567@126.com"
-        }
-}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335,mobileNo,135****9098</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select tenant_user_id,status from user_basic_info where tenant_user_id =833334 and tenant_id = 1001
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id="10012";
+delete from user_basic_info where tenant_user_id ="333335"; 
+delete from user_info_item where tenant_user_id = "333335"; 
+delete from user_index where tenant_user_id = "333335" and tenant_id ="1001"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="833334";
+delete from user_info_item where tenant_user_id = "833334";
+delete from user_index where tenant_user_id ="833334";
+delete from user_request_serial where request_id="10015" and tenant_id="1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select tenant_user_id,status from user_basic_info where tenant_user_id ="833334" and tenant_id = "1001"
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "requestId":"10013",
- "tenantId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",
- "tenantUserId":"333336",
- "params":{
-        "name":"李五",        "mobileNo":"15566789098",
-        "certNo":"",      "email":"8834567@126.com"
-        }
-}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>833334</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833334 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833334,certNo,5434**********5432</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333333,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"10016",
- "tenantId": "1001",
- "tenantUserId":"334",
- "params":{
-        "name":"李四",
-        "certNo":"541222199303040000",
-        "email":"3234567@126.com"
-        }
-}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="833334" and tenant_id = "1001" and key_name = "certNo";</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-select tenant_user_id,status from user_basic_info where tenant_user_id =333333 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =334 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>34,1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = 334 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>334,certNo,5412**********0000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = 334 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>334,email,3234***@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id = 334 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>334,name,李*</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,email,9834***@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"10018",
- "tenantId": "1001",
- "tenantUserId":"833330",
- "params":{
-        "name":"李",
-        "mobileNo":"18966789098",
-        "certNo":"543456789098765432"
-        }
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533333 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>833330</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833330 and tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833330 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833330 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
- "requestId":"10019",
- "tenantId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001",
- "tenantUserId":"833330",
- "params":{
-        "name":"",
-        "mobileNo":"",
-        "certNo":"",
-        "email":""
-        }
-}</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330,certNo,5434**********5432</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330,name,李</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833330 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tenant_user_id,status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from user_basic_info where tenant_user_id =83333 and tenant_id = 1001</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"20200326",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-        "name":"小明",
-        "mobileNo":"18899934567",
-        "certNo":"341222199303040000",
-        "email":"1234567@126.com"
-        }
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00111,1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"2020",
- "tenantId": "1001",
- "tenantUserId":"000112",
- "params":{
-        "name":"小明",
-        "mobileNo":"18899934567",
-        "certNo":"341222199303040000",
-        "email":"1234567@126.com"
-        }
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000111  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000111 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000111 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =333335  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 333335 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 333335 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =333336 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 333336 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 333336 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =533335  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 533335 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 533335 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =833334  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 833334 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 833334 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =333333 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 333333 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 333333 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =334 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 334 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 334 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =533333 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 533333 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 533333 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =833330 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 833330 and tenant_id = 1001;
-delete from user_index where tenant_user_id =833330 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =833330 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 833330 and tenant_id = 1001;
-delete from user_index where tenant_user_id =833330 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =83333 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 83333 and tenant_id = 1001;
-delete from user_index where tenant_user_id =83333 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "name";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "certNo";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "mobileNo";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "email";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,certNo,1234**********5432</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533333 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>533335,email,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9834***@126.com</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>533335</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001 and key_name = "email";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533335</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and tenant_id = 1001 and key_name = "certNo";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =533335</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and tenant_id = 1001 and key_name = "mobileNo";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =833334</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and tenant_id = 1001 and key_name = "mobileNo";</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333333 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "email";
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "name";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>000111,name,小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>000111,mobileNo,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>188****4567</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>000111,certNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3412**********0000</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_request_serial values (99900,2020,1001,000112,1,1,"2020-04-14 15:31:11","2020-04-14 15:31:11")</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>83333,mobileNo,189****9098</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330,mobileNo,189****9098</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333333,email,3234***@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>000111,email,1234***@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =333335 and tenant_id = 1001 and key_name = "email";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>333335</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333336,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333336</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335,certNo,1234**********5432</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533335</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833334,mobileNo,189****9098</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833334</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333333,certNo,5412**********0000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =333333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>334,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =334</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,mobileNo,135****9098</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =533333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id,status from user_basic_info where tenant_user_id =833330</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "certNo";</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333335,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =000111 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =333335 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =333336 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =533335 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533335</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833334,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =833334 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>333333,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =333333 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select tenant_user_id from user_index where tenant_user_id =33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>34</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>533333</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =533333 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =833330 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>83333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>833330</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =833330 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>83333,certNo,5434**********5432</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id from user_index where tenant_user_id =83333 and tenant_id = 1001;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+select tenant_user_id,key_name,key_value from user_info_item where tenant_user_id ="833334" and tenant_id = "1001" and key_name = "mobileNo";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id,status from user_basic_info where tenant_user_id ="833334" and tenant_id = "1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select tenant_user_id from user_index where tenant_user_id ="833334" and tenant_id = "1001";</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2424,13 +1925,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF172B4D"/>
       <name val="Helvetica Neue"/>
@@ -2443,8 +1937,30 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2475,12 +1991,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2491,262 +2001,283 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3026,42 +2557,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="134" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="75.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="32" style="9" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="24" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.9140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="25.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="32.9140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" style="12" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="27.4140625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" style="12" customWidth="1"/>
     <col min="18" max="18" width="19.83203125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="11" style="12"/>
+    <col min="19" max="19" width="44.83203125" style="12" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" style="5" customWidth="1"/>
     <col min="21" max="21" width="20.1640625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="17.58203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="22.08203125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="17.4140625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="18.58203125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" style="12" customWidth="1"/>
     <col min="26" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" customHeight="1">
+    <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,1042 +2634,1130 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="63" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="63" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="63" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="63" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="W1" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y1" s="63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="206.5" customHeight="1">
-      <c r="A2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="206.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>155</v>
+      <c r="K2" s="66" t="s">
+        <v>225</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="60"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
+    </row>
+    <row r="4" spans="1:25" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
+    </row>
+    <row r="5" spans="1:25" s="22" customFormat="1" ht="165" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="T5" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" s="22">
+        <v>333335</v>
+      </c>
+      <c r="W5" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="23"/>
+    </row>
+    <row r="6" spans="1:25" ht="165" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="T6" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="22">
+        <v>333336</v>
+      </c>
+      <c r="W6" s="73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="165" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="U7" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="V7" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="W7" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="X7" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y7" s="61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="165" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="Q8" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="T8" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="U8" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="V8" s="22">
+        <v>833334</v>
+      </c>
+      <c r="W8" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="22" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O9" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="T9" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="U9" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="V9" s="22">
+        <v>333333</v>
+      </c>
+      <c r="W9" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="23"/>
+    </row>
+    <row r="10" spans="1:25" s="22" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="W2" s="77" t="s">
+      <c r="O10" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="T10" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="U10" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="V10" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="W10" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="X10" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y10" s="72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="22" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+      <c r="A11" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="R11" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="T11" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="V11" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="W11" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="X11" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y11" s="72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="210" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="T12" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="U12" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="X2" s="79" t="s">
+      <c r="V12" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="W12" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" s="77" t="s">
+      <c r="X12" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" s="61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="409.5">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="56" t="s">
+    <row r="13" spans="1:25" ht="210" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="R13" s="75"/>
+      <c r="S13" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="T13" s="75"/>
+      <c r="U13" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="V13" s="22"/>
+      <c r="W13" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="X13" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" s="61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="165" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="G14" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="1:25" ht="100" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:25" ht="196">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="T5" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="V5" s="5">
-        <v>333335</v>
-      </c>
-      <c r="W5" s="77" t="s">
+      <c r="K14" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="69" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="196">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="69" t="s">
+      <c r="P14" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="R14" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="T14" s="22">
+        <v>83333</v>
+      </c>
+      <c r="U14" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="1:25" ht="390" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="U6" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="V6" s="5">
-        <v>333336</v>
-      </c>
-      <c r="W6" s="77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="196">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="P7" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="R7" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="T7" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="U7" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="V7" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="W7" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="X7" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y7" s="77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="210">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="R8" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="S8" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="T8" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="U8" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="V8" s="5">
-        <v>833334</v>
-      </c>
-      <c r="W8" s="77" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="196">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q9" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="R9" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="S9" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="U9" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="V9" s="5">
-        <v>333333</v>
-      </c>
-      <c r="W9" s="77" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="182">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="O10" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="P10" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="R10" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="U10" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="V10" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="W10" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="X10" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y10" s="77" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="196">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="R11" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="S11" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="T11" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="U11" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="V11" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="W11" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="X11" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y11" s="77" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="196">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="T12" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="V12" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="W12" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="X12" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y12" s="77" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="196">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C15" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="O13" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="R13" s="58"/>
-      <c r="S13" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="T13" s="58"/>
-      <c r="U13" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="W13" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="X13" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y13" s="77" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="196">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="G14" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="T14" s="5">
-        <v>83333</v>
-      </c>
-      <c r="U14" s="77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="364">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
+      <c r="H15" t="s">
+        <v>145</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="364">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="23"/>
+    </row>
+    <row r="16" spans="1:25" ht="390" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="14" t="s">
-        <v>51</v>
+      <c r="H16" t="s">
+        <v>145</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="378">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23"/>
+    </row>
+    <row r="17" spans="1:25" ht="405" x14ac:dyDescent="0.2">
+      <c r="A17" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="14" t="s">
-        <v>51</v>
+      <c r="H17" t="s">
+        <v>145</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="364">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="1:25" ht="390" x14ac:dyDescent="0.2">
+      <c r="A18" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="14" t="s">
-        <v>51</v>
+      <c r="H18" t="s">
+        <v>145</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="364">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="1:25" ht="390" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="14" t="s">
-        <v>51</v>
+      <c r="H19" t="s">
+        <v>145</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="378">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="1:25" ht="405" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="14" t="s">
-        <v>51</v>
+      <c r="H20" t="s">
+        <v>145</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="95" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="23"/>
+    </row>
+    <row r="21" spans="1:25" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="14" t="s">
+      <c r="H21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="17.5">
+        <v>60</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="23"/>
+    </row>
+    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="29"/>
@@ -4145,17 +3765,24 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="H22"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
       <c r="K22" s="35"/>
       <c r="L22" s="32"/>
       <c r="M22" s="35"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-    </row>
-    <row r="23" spans="1:25" ht="17.5">
+      <c r="N22" s="44"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="29"/>
@@ -4163,17 +3790,24 @@
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="14"/>
+      <c r="H23"/>
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
       <c r="L23" s="32"/>
       <c r="M23" s="35"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-    </row>
-    <row r="24" spans="1:25" ht="17.5">
+      <c r="N23" s="54"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
+    </row>
+    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="36"/>
@@ -4181,17 +3815,24 @@
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="14"/>
+      <c r="H24"/>
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
       <c r="L24" s="32"/>
       <c r="M24" s="35"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-    </row>
-    <row r="25" spans="1:25" ht="17.5">
+      <c r="N24" s="44"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="23"/>
+    </row>
+    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="36"/>
@@ -4199,17 +3840,24 @@
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="14"/>
+      <c r="H25"/>
       <c r="I25" s="33"/>
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="L25" s="32"/>
       <c r="M25" s="35"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-    </row>
-    <row r="26" spans="1:25" ht="17.5">
+      <c r="N25" s="45"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="23"/>
+    </row>
+    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="36"/>
@@ -4217,14 +3865,23 @@
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="14"/>
+      <c r="H26"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
       <c r="L26" s="32"/>
       <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:25" s="22" customFormat="1" ht="144.5" customHeight="1">
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="23"/>
+    </row>
+    <row r="27" spans="1:25" s="22" customFormat="1" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="36"/>
@@ -4232,7 +3889,7 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="14"/>
+      <c r="H27"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
       <c r="K27" s="39"/>
@@ -4248,7 +3905,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="23"/>
     </row>
-    <row r="28" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="28" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="36"/>
@@ -4256,15 +3913,15 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="14"/>
+      <c r="H28"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="L28" s="37"/>
       <c r="M28" s="39"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
       <c r="Q28" s="23"/>
       <c r="S28" s="23"/>
       <c r="U28" s="23"/>
@@ -4272,7 +3929,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="23"/>
     </row>
-    <row r="29" spans="1:25" s="22" customFormat="1" ht="127.5" customHeight="1">
+    <row r="29" spans="1:25" s="22" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
@@ -4280,15 +3937,15 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
-      <c r="H29" s="14"/>
+      <c r="H29"/>
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
       <c r="K29" s="39"/>
       <c r="L29" s="37"/>
       <c r="M29" s="39"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
       <c r="Q29" s="23"/>
       <c r="S29" s="23"/>
       <c r="U29" s="23"/>
@@ -4296,7 +3953,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="23"/>
     </row>
-    <row r="30" spans="1:25" s="22" customFormat="1" ht="93" customHeight="1">
+    <row r="30" spans="1:25" s="22" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="36"/>
@@ -4304,15 +3961,15 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="14"/>
+      <c r="H30"/>
       <c r="I30" s="33"/>
       <c r="J30" s="34"/>
       <c r="K30" s="39"/>
       <c r="L30" s="37"/>
       <c r="M30" s="39"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
       <c r="Q30" s="23"/>
       <c r="S30" s="23"/>
       <c r="U30" s="23"/>
@@ -4320,7 +3977,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="23"/>
     </row>
-    <row r="31" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="31" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="29"/>
@@ -4328,7 +3985,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="14"/>
+      <c r="H31"/>
       <c r="I31" s="33"/>
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
@@ -4344,7 +4001,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="23"/>
     </row>
-    <row r="32" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="32" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="40"/>
@@ -4352,7 +4009,7 @@
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
-      <c r="H32" s="14"/>
+      <c r="H32"/>
       <c r="I32" s="33"/>
       <c r="J32" s="38"/>
       <c r="K32" s="43"/>
@@ -4368,7 +4025,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="23"/>
     </row>
-    <row r="33" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="33" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="40"/>
@@ -4376,7 +4033,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
-      <c r="H33" s="14"/>
+      <c r="H33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="34"/>
       <c r="K33" s="43"/>
@@ -4392,7 +4049,7 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="23"/>
     </row>
-    <row r="34" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="34" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="40"/>
@@ -4400,7 +4057,7 @@
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="14"/>
+      <c r="H34"/>
       <c r="I34" s="33"/>
       <c r="J34" s="34"/>
       <c r="K34" s="43"/>
@@ -4416,7 +4073,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="23"/>
     </row>
-    <row r="35" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="35" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="40"/>
@@ -4424,7 +4081,7 @@
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="14"/>
+      <c r="H35"/>
       <c r="I35" s="33"/>
       <c r="J35" s="34"/>
       <c r="K35" s="43"/>
@@ -4440,7 +4097,7 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="23"/>
     </row>
-    <row r="36" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="36" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="40"/>
@@ -4448,7 +4105,7 @@
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="14"/>
+      <c r="H36"/>
       <c r="I36" s="33"/>
       <c r="J36" s="34"/>
       <c r="K36" s="35"/>
@@ -4464,7 +4121,7 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="23"/>
     </row>
-    <row r="37" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="37" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="40"/>
@@ -4472,7 +4129,7 @@
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
-      <c r="H37" s="14"/>
+      <c r="H37"/>
       <c r="I37" s="33"/>
       <c r="J37" s="34"/>
       <c r="K37" s="35"/>
@@ -4488,7 +4145,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="23"/>
     </row>
-    <row r="38" spans="1:25" s="22" customFormat="1" ht="110" customHeight="1">
+    <row r="38" spans="1:25" s="22" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="40"/>
@@ -4496,7 +4153,7 @@
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
-      <c r="H38" s="14"/>
+      <c r="H38"/>
       <c r="I38" s="33"/>
       <c r="J38" s="34"/>
       <c r="K38" s="35"/>
@@ -4512,7 +4169,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="23"/>
     </row>
-    <row r="39" spans="1:25" ht="17.5">
+    <row r="39" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="36"/>
@@ -4520,14 +4177,14 @@
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="14"/>
+      <c r="H39"/>
       <c r="I39" s="33"/>
-      <c r="J39" s="48"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="35"/>
       <c r="L39" s="32"/>
       <c r="M39" s="35"/>
     </row>
-    <row r="40" spans="1:25" ht="17.5">
+    <row r="40" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="36"/>
@@ -4535,14 +4192,14 @@
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="14"/>
+      <c r="H40"/>
       <c r="I40" s="33"/>
-      <c r="J40" s="48"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="35"/>
       <c r="L40" s="32"/>
       <c r="M40" s="35"/>
     </row>
-    <row r="41" spans="1:25" ht="17.5">
+    <row r="41" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="36"/>
@@ -4550,14 +4207,14 @@
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="14"/>
+      <c r="H41"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="48"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="35"/>
       <c r="L41" s="32"/>
       <c r="M41" s="35"/>
     </row>
-    <row r="42" spans="1:25" ht="17.5">
+    <row r="42" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="36"/>
@@ -4565,14 +4222,14 @@
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="14"/>
+      <c r="H42"/>
       <c r="I42" s="33"/>
-      <c r="J42" s="48"/>
+      <c r="J42" s="47"/>
       <c r="K42" s="35"/>
       <c r="L42" s="32"/>
       <c r="M42" s="35"/>
     </row>
-    <row r="43" spans="1:25" ht="17.5">
+    <row r="43" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="36"/>
@@ -4580,14 +4237,14 @@
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="14"/>
+      <c r="H43"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="48"/>
+      <c r="J43" s="47"/>
       <c r="K43" s="35"/>
       <c r="L43" s="32"/>
       <c r="M43" s="35"/>
     </row>
-    <row r="44" spans="1:25" ht="17.5">
+    <row r="44" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="36"/>
@@ -4595,14 +4252,14 @@
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="14"/>
+      <c r="H44"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="48"/>
+      <c r="J44" s="47"/>
       <c r="K44" s="35"/>
       <c r="L44" s="32"/>
       <c r="M44" s="35"/>
     </row>
-    <row r="45" spans="1:25" ht="167" customHeight="1">
+    <row r="45" spans="1:25" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="36"/>
@@ -4610,14 +4267,14 @@
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="14"/>
+      <c r="H45"/>
       <c r="I45" s="33"/>
-      <c r="J45" s="48"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="35"/>
       <c r="L45" s="32"/>
       <c r="M45" s="39"/>
     </row>
-    <row r="46" spans="1:25" ht="207.5" customHeight="1">
+    <row r="46" spans="1:25" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="36"/>
@@ -4625,14 +4282,14 @@
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
-      <c r="H46" s="14"/>
+      <c r="H46"/>
       <c r="I46" s="33"/>
-      <c r="J46" s="48"/>
+      <c r="J46" s="47"/>
       <c r="K46" s="35"/>
       <c r="L46" s="32"/>
       <c r="M46" s="35"/>
     </row>
-    <row r="47" spans="1:25" ht="17.5">
+    <row r="47" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="36"/>
@@ -4640,14 +4297,16 @@
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="14"/>
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
       <c r="I47" s="33"/>
-      <c r="J47" s="48"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="35"/>
       <c r="L47" s="32"/>
       <c r="M47" s="35"/>
     </row>
-    <row r="48" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="48" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="36"/>
@@ -4655,9 +4314,11 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="14"/>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
       <c r="I48" s="33"/>
-      <c r="J48" s="48"/>
+      <c r="J48" s="47"/>
       <c r="K48" s="35"/>
       <c r="L48" s="32"/>
       <c r="M48" s="35"/>
@@ -4671,7 +4332,7 @@
       <c r="X48" s="21"/>
       <c r="Y48" s="23"/>
     </row>
-    <row r="49" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="49" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="36"/>
@@ -4679,9 +4340,11 @@
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="14"/>
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
       <c r="I49" s="33"/>
-      <c r="J49" s="48"/>
+      <c r="J49" s="47"/>
       <c r="K49" s="35"/>
       <c r="L49" s="32"/>
       <c r="M49" s="35"/>
@@ -4695,7 +4358,7 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="23"/>
     </row>
-    <row r="50" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="50" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="36"/>
@@ -4703,9 +4366,11 @@
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
-      <c r="H50" s="14"/>
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
       <c r="I50" s="33"/>
-      <c r="J50" s="48"/>
+      <c r="J50" s="47"/>
       <c r="K50" s="35"/>
       <c r="L50" s="32"/>
       <c r="M50" s="39"/>
@@ -4719,7 +4384,7 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="23"/>
     </row>
-    <row r="51" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="51" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="36"/>
@@ -4729,7 +4394,7 @@
       <c r="G51" s="31"/>
       <c r="H51" s="14"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="48"/>
+      <c r="J51" s="47"/>
       <c r="K51" s="35"/>
       <c r="L51" s="32"/>
       <c r="M51" s="39"/>
@@ -4743,7 +4408,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="23"/>
     </row>
-    <row r="52" spans="1:25" ht="17.5">
+    <row r="52" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="36"/>
@@ -4753,12 +4418,12 @@
       <c r="G52" s="31"/>
       <c r="H52" s="14"/>
       <c r="I52" s="33"/>
-      <c r="J52" s="48"/>
+      <c r="J52" s="47"/>
       <c r="K52" s="35"/>
       <c r="L52" s="32"/>
       <c r="M52" s="39"/>
     </row>
-    <row r="53" spans="1:25" ht="17.5">
+    <row r="53" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="36"/>
@@ -4768,12 +4433,12 @@
       <c r="G53" s="31"/>
       <c r="H53" s="14"/>
       <c r="I53" s="33"/>
-      <c r="J53" s="48"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="35"/>
       <c r="L53" s="32"/>
       <c r="M53" s="43"/>
     </row>
-    <row r="54" spans="1:25" ht="17.5">
+    <row r="54" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="36"/>
@@ -4783,12 +4448,12 @@
       <c r="G54" s="31"/>
       <c r="H54" s="14"/>
       <c r="I54" s="33"/>
-      <c r="J54" s="48"/>
+      <c r="J54" s="47"/>
       <c r="K54" s="35"/>
       <c r="L54" s="32"/>
       <c r="M54" s="43"/>
     </row>
-    <row r="55" spans="1:25" ht="114.5" customHeight="1">
+    <row r="55" spans="1:25" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="40"/>
@@ -4798,12 +4463,12 @@
       <c r="G55" s="40"/>
       <c r="H55" s="14"/>
       <c r="I55" s="33"/>
-      <c r="J55" s="48"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="35"/>
       <c r="L55" s="42"/>
       <c r="M55" s="43"/>
     </row>
-    <row r="56" spans="1:25" ht="119" customHeight="1">
+    <row r="56" spans="1:25" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="40"/>
@@ -4813,27 +4478,27 @@
       <c r="G56" s="40"/>
       <c r="H56" s="14"/>
       <c r="I56" s="33"/>
-      <c r="J56" s="48"/>
+      <c r="J56" s="47"/>
       <c r="K56" s="35"/>
       <c r="L56" s="42"/>
       <c r="M56" s="43"/>
     </row>
-    <row r="57" spans="1:25" ht="169.5" customHeight="1">
+    <row r="57" spans="1:25" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="49"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
       <c r="H57" s="14"/>
       <c r="I57" s="33"/>
-      <c r="J57" s="48"/>
+      <c r="J57" s="47"/>
       <c r="K57" s="35"/>
       <c r="L57" s="32"/>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="1:25" ht="17.5">
+    <row r="58" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="36"/>
@@ -4843,12 +4508,12 @@
       <c r="G58" s="31"/>
       <c r="H58" s="14"/>
       <c r="I58" s="33"/>
-      <c r="J58" s="48"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="35"/>
       <c r="L58" s="32"/>
       <c r="M58" s="35"/>
     </row>
-    <row r="59" spans="1:25" ht="17.5">
+    <row r="59" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="40"/>
@@ -4858,12 +4523,12 @@
       <c r="G59" s="40"/>
       <c r="H59" s="14"/>
       <c r="I59" s="33"/>
-      <c r="J59" s="48"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="35"/>
       <c r="L59" s="32"/>
       <c r="M59" s="35"/>
     </row>
-    <row r="60" spans="1:25" ht="17.5">
+    <row r="60" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="40"/>
@@ -4873,12 +4538,12 @@
       <c r="G60" s="40"/>
       <c r="H60" s="14"/>
       <c r="I60" s="33"/>
-      <c r="J60" s="48"/>
+      <c r="J60" s="47"/>
       <c r="K60" s="35"/>
       <c r="L60" s="32"/>
       <c r="M60" s="35"/>
     </row>
-    <row r="61" spans="1:25" ht="17.5">
+    <row r="61" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="40"/>
@@ -4888,12 +4553,12 @@
       <c r="G61" s="40"/>
       <c r="H61" s="14"/>
       <c r="I61" s="33"/>
-      <c r="J61" s="48"/>
+      <c r="J61" s="47"/>
       <c r="K61" s="35"/>
       <c r="L61" s="32"/>
       <c r="M61" s="35"/>
     </row>
-    <row r="62" spans="1:25" ht="105" customHeight="1">
+    <row r="62" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="40"/>
@@ -4903,12 +4568,12 @@
       <c r="G62" s="40"/>
       <c r="H62" s="14"/>
       <c r="I62" s="33"/>
-      <c r="J62" s="48"/>
+      <c r="J62" s="47"/>
       <c r="K62" s="35"/>
       <c r="L62" s="32"/>
       <c r="M62" s="35"/>
     </row>
-    <row r="63" spans="1:25" ht="17.5">
+    <row r="63" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="36"/>
@@ -4918,12 +4583,12 @@
       <c r="G63" s="31"/>
       <c r="H63" s="14"/>
       <c r="I63" s="33"/>
-      <c r="J63" s="48"/>
+      <c r="J63" s="47"/>
       <c r="K63" s="35"/>
       <c r="L63" s="32"/>
       <c r="M63" s="35"/>
     </row>
-    <row r="64" spans="1:25" ht="116.5" customHeight="1">
+    <row r="64" spans="1:25" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="36"/>
@@ -4933,12 +4598,12 @@
       <c r="G64" s="31"/>
       <c r="H64" s="14"/>
       <c r="I64" s="33"/>
-      <c r="J64" s="48"/>
+      <c r="J64" s="47"/>
       <c r="K64" s="35"/>
       <c r="L64" s="32"/>
       <c r="M64" s="35"/>
     </row>
-    <row r="65" spans="1:25" ht="17.5">
+    <row r="65" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="36"/>
@@ -4948,12 +4613,12 @@
       <c r="G65" s="31"/>
       <c r="H65" s="14"/>
       <c r="I65" s="33"/>
-      <c r="J65" s="48"/>
+      <c r="J65" s="47"/>
       <c r="K65" s="35"/>
       <c r="L65" s="32"/>
       <c r="M65" s="35"/>
     </row>
-    <row r="66" spans="1:25" ht="17.5">
+    <row r="66" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="36"/>
@@ -4963,12 +4628,12 @@
       <c r="G66" s="31"/>
       <c r="H66" s="14"/>
       <c r="I66" s="33"/>
-      <c r="J66" s="48"/>
+      <c r="J66" s="47"/>
       <c r="K66" s="35"/>
       <c r="L66" s="32"/>
       <c r="M66" s="35"/>
     </row>
-    <row r="67" spans="1:25" ht="17.5">
+    <row r="67" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="36"/>
@@ -4978,12 +4643,12 @@
       <c r="G67" s="31"/>
       <c r="H67" s="14"/>
       <c r="I67" s="33"/>
-      <c r="J67" s="48"/>
+      <c r="J67" s="47"/>
       <c r="K67" s="35"/>
       <c r="L67" s="32"/>
       <c r="M67" s="35"/>
     </row>
-    <row r="68" spans="1:25" ht="117.5" customHeight="1">
+    <row r="68" spans="1:25" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="36"/>
@@ -4993,12 +4658,12 @@
       <c r="G68" s="31"/>
       <c r="H68" s="14"/>
       <c r="I68" s="33"/>
-      <c r="J68" s="48"/>
+      <c r="J68" s="47"/>
       <c r="K68" s="35"/>
       <c r="L68" s="32"/>
       <c r="M68" s="35"/>
     </row>
-    <row r="69" spans="1:25" ht="17.5">
+    <row r="69" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="36"/>
@@ -5008,12 +4673,12 @@
       <c r="G69" s="31"/>
       <c r="H69" s="14"/>
       <c r="I69" s="33"/>
-      <c r="J69" s="48"/>
+      <c r="J69" s="47"/>
       <c r="K69" s="35"/>
       <c r="L69" s="32"/>
       <c r="M69" s="35"/>
     </row>
-    <row r="70" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="70" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="36"/>
@@ -5023,7 +4688,7 @@
       <c r="G70" s="31"/>
       <c r="H70" s="14"/>
       <c r="I70" s="33"/>
-      <c r="J70" s="48"/>
+      <c r="J70" s="47"/>
       <c r="K70" s="35"/>
       <c r="L70" s="32"/>
       <c r="M70" s="35"/>
@@ -5037,7 +4702,7 @@
       <c r="X70" s="21"/>
       <c r="Y70" s="23"/>
     </row>
-    <row r="71" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="71" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="36"/>
@@ -5047,7 +4712,7 @@
       <c r="G71" s="31"/>
       <c r="H71" s="14"/>
       <c r="I71" s="33"/>
-      <c r="J71" s="48"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="35"/>
       <c r="L71" s="32"/>
       <c r="M71" s="35"/>
@@ -5061,7 +4726,7 @@
       <c r="X71" s="21"/>
       <c r="Y71" s="23"/>
     </row>
-    <row r="72" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="72" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="36"/>
@@ -5071,7 +4736,7 @@
       <c r="G72" s="31"/>
       <c r="H72" s="14"/>
       <c r="I72" s="33"/>
-      <c r="J72" s="48"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="35"/>
       <c r="L72" s="32"/>
       <c r="M72" s="35"/>
@@ -5085,7 +4750,7 @@
       <c r="X72" s="21"/>
       <c r="Y72" s="23"/>
     </row>
-    <row r="73" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="73" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="36"/>
@@ -5095,7 +4760,7 @@
       <c r="G73" s="31"/>
       <c r="H73" s="14"/>
       <c r="I73" s="33"/>
-      <c r="J73" s="48"/>
+      <c r="J73" s="47"/>
       <c r="K73" s="39"/>
       <c r="L73" s="32"/>
       <c r="M73" s="35"/>
@@ -5109,7 +4774,7 @@
       <c r="X73" s="21"/>
       <c r="Y73" s="23"/>
     </row>
-    <row r="74" spans="1:25" s="22" customFormat="1" ht="125" customHeight="1">
+    <row r="74" spans="1:25" s="22" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="36"/>
@@ -5119,7 +4784,7 @@
       <c r="G74" s="31"/>
       <c r="H74" s="14"/>
       <c r="I74" s="33"/>
-      <c r="J74" s="48"/>
+      <c r="J74" s="47"/>
       <c r="K74" s="35"/>
       <c r="L74" s="32"/>
       <c r="M74" s="35"/>
@@ -5133,7 +4798,7 @@
       <c r="X74" s="21"/>
       <c r="Y74" s="23"/>
     </row>
-    <row r="75" spans="1:25" s="22" customFormat="1" ht="166.5" customHeight="1">
+    <row r="75" spans="1:25" s="22" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="36"/>
@@ -5143,7 +4808,7 @@
       <c r="G75" s="31"/>
       <c r="H75" s="14"/>
       <c r="I75" s="33"/>
-      <c r="J75" s="48"/>
+      <c r="J75" s="47"/>
       <c r="K75" s="35"/>
       <c r="L75" s="32"/>
       <c r="M75" s="43"/>
@@ -5157,7 +4822,7 @@
       <c r="X75" s="21"/>
       <c r="Y75" s="23"/>
     </row>
-    <row r="76" spans="1:25" s="22" customFormat="1" ht="110.5" customHeight="1">
+    <row r="76" spans="1:25" s="22" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="36"/>
@@ -5167,7 +4832,7 @@
       <c r="G76" s="31"/>
       <c r="H76" s="14"/>
       <c r="I76" s="33"/>
-      <c r="J76" s="48"/>
+      <c r="J76" s="47"/>
       <c r="K76" s="35"/>
       <c r="L76" s="32"/>
       <c r="M76" s="43"/>
@@ -5181,7 +4846,7 @@
       <c r="X76" s="21"/>
       <c r="Y76" s="23"/>
     </row>
-    <row r="77" spans="1:25" s="22" customFormat="1" ht="131" customHeight="1">
+    <row r="77" spans="1:25" s="22" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="40"/>
@@ -5191,7 +4856,7 @@
       <c r="G77" s="40"/>
       <c r="H77" s="14"/>
       <c r="I77" s="33"/>
-      <c r="J77" s="48"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="35"/>
       <c r="L77" s="42"/>
       <c r="M77" s="43"/>
@@ -5205,7 +4870,7 @@
       <c r="X77" s="21"/>
       <c r="Y77" s="23"/>
     </row>
-    <row r="78" spans="1:25" s="22" customFormat="1" ht="141" customHeight="1">
+    <row r="78" spans="1:25" s="22" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="40"/>
@@ -5215,7 +4880,7 @@
       <c r="G78" s="40"/>
       <c r="H78" s="14"/>
       <c r="I78" s="33"/>
-      <c r="J78" s="48"/>
+      <c r="J78" s="47"/>
       <c r="K78" s="35"/>
       <c r="L78" s="42"/>
       <c r="M78" s="43"/>
@@ -5229,7 +4894,7 @@
       <c r="X78" s="21"/>
       <c r="Y78" s="23"/>
     </row>
-    <row r="79" spans="1:25" s="22" customFormat="1" ht="118.5" customHeight="1">
+    <row r="79" spans="1:25" s="22" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="40"/>
@@ -5239,7 +4904,7 @@
       <c r="G79" s="31"/>
       <c r="H79" s="14"/>
       <c r="I79" s="33"/>
-      <c r="J79" s="48"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="35"/>
       <c r="L79" s="32"/>
       <c r="M79" s="35"/>
@@ -5253,7 +4918,7 @@
       <c r="X79" s="21"/>
       <c r="Y79" s="23"/>
     </row>
-    <row r="80" spans="1:25" s="22" customFormat="1" ht="123" customHeight="1">
+    <row r="80" spans="1:25" s="22" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="40"/>
@@ -5263,7 +4928,7 @@
       <c r="G80" s="31"/>
       <c r="H80" s="14"/>
       <c r="I80" s="33"/>
-      <c r="J80" s="48"/>
+      <c r="J80" s="47"/>
       <c r="K80" s="35"/>
       <c r="L80" s="32"/>
       <c r="M80" s="35"/>
@@ -5277,7 +4942,7 @@
       <c r="X80" s="21"/>
       <c r="Y80" s="23"/>
     </row>
-    <row r="81" spans="1:25" s="22" customFormat="1" ht="148.5" customHeight="1">
+    <row r="81" spans="1:25" s="22" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="40"/>
@@ -5287,7 +4952,7 @@
       <c r="G81" s="31"/>
       <c r="H81" s="14"/>
       <c r="I81" s="33"/>
-      <c r="J81" s="48"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="35"/>
       <c r="L81" s="32"/>
       <c r="M81" s="35"/>
@@ -5301,7 +4966,7 @@
       <c r="X81" s="21"/>
       <c r="Y81" s="23"/>
     </row>
-    <row r="82" spans="1:25" s="22" customFormat="1" ht="191.5" customHeight="1">
+    <row r="82" spans="1:25" s="22" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="40"/>
@@ -5311,7 +4976,7 @@
       <c r="G82" s="31"/>
       <c r="H82" s="14"/>
       <c r="I82" s="33"/>
-      <c r="J82" s="48"/>
+      <c r="J82" s="47"/>
       <c r="K82" s="35"/>
       <c r="L82" s="32"/>
       <c r="M82" s="35"/>
@@ -5325,20 +4990,20 @@
       <c r="X82" s="21"/>
       <c r="Y82" s="23"/>
     </row>
-    <row r="83" spans="1:25" s="22" customFormat="1" ht="128" customHeight="1">
+    <row r="83" spans="1:25" s="22" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="40"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
       <c r="H83" s="14"/>
       <c r="I83" s="33"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="51"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="50"/>
       <c r="N83" s="21"/>
       <c r="O83" s="23"/>
       <c r="P83" s="23"/>
@@ -5349,20 +5014,20 @@
       <c r="X83" s="21"/>
       <c r="Y83" s="23"/>
     </row>
-    <row r="84" spans="1:25" s="22" customFormat="1" ht="96.5" customHeight="1">
+    <row r="84" spans="1:25" s="22" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="40"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
       <c r="H84" s="14"/>
       <c r="I84" s="33"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="51"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="50"/>
       <c r="N84" s="21"/>
       <c r="O84" s="23"/>
       <c r="P84" s="23"/>
@@ -5373,20 +5038,20 @@
       <c r="X84" s="21"/>
       <c r="Y84" s="23"/>
     </row>
-    <row r="85" spans="1:25" s="22" customFormat="1" ht="100.5" customHeight="1">
+    <row r="85" spans="1:25" s="22" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="40"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
       <c r="H85" s="14"/>
       <c r="I85" s="33"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="51"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="50"/>
       <c r="N85" s="21"/>
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
@@ -5397,20 +5062,20 @@
       <c r="X85" s="21"/>
       <c r="Y85" s="23"/>
     </row>
-    <row r="86" spans="1:25" s="22" customFormat="1" ht="156.5" customHeight="1">
+    <row r="86" spans="1:25" s="22" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="40"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
       <c r="H86" s="14"/>
       <c r="I86" s="33"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="51"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="50"/>
       <c r="N86" s="21"/>
       <c r="O86" s="23"/>
       <c r="P86" s="23"/>
@@ -5421,20 +5086,20 @@
       <c r="X86" s="21"/>
       <c r="Y86" s="23"/>
     </row>
-    <row r="87" spans="1:25" s="22" customFormat="1" ht="111" customHeight="1">
+    <row r="87" spans="1:25" s="22" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="40"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
       <c r="H87" s="14"/>
       <c r="I87" s="33"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="51"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="50"/>
       <c r="N87" s="21"/>
       <c r="O87" s="23"/>
       <c r="P87" s="23"/>
@@ -5445,20 +5110,20 @@
       <c r="X87" s="21"/>
       <c r="Y87" s="23"/>
     </row>
-    <row r="88" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="88" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="40"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
       <c r="H88" s="14"/>
       <c r="I88" s="33"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="51"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="50"/>
       <c r="N88" s="21"/>
       <c r="O88" s="23"/>
       <c r="P88" s="23"/>
@@ -5469,20 +5134,20 @@
       <c r="X88" s="21"/>
       <c r="Y88" s="23"/>
     </row>
-    <row r="89" spans="1:25" s="22" customFormat="1" ht="161.5" customHeight="1">
+    <row r="89" spans="1:25" s="22" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="40"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
       <c r="H89" s="14"/>
       <c r="I89" s="33"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="51"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="50"/>
       <c r="N89" s="21"/>
       <c r="O89" s="23"/>
       <c r="P89" s="23"/>
@@ -5493,20 +5158,20 @@
       <c r="X89" s="21"/>
       <c r="Y89" s="23"/>
     </row>
-    <row r="90" spans="1:25" s="22" customFormat="1" ht="154.5" customHeight="1">
+    <row r="90" spans="1:25" s="22" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="40"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
       <c r="H90" s="14"/>
       <c r="I90" s="33"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="51"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="50"/>
       <c r="N90" s="21"/>
       <c r="O90" s="23"/>
       <c r="P90" s="23"/>
@@ -5517,20 +5182,20 @@
       <c r="X90" s="21"/>
       <c r="Y90" s="23"/>
     </row>
-    <row r="91" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="91" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="40"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
       <c r="H91" s="14"/>
       <c r="I91" s="33"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="51"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="50"/>
       <c r="N91" s="21"/>
       <c r="O91" s="23"/>
       <c r="P91" s="23"/>
@@ -5541,20 +5206,20 @@
       <c r="X91" s="21"/>
       <c r="Y91" s="23"/>
     </row>
-    <row r="92" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="92" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="40"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
       <c r="H92" s="14"/>
       <c r="I92" s="33"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="51"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="50"/>
       <c r="N92" s="21"/>
       <c r="O92" s="23"/>
       <c r="P92" s="23"/>
@@ -5565,20 +5230,20 @@
       <c r="X92" s="21"/>
       <c r="Y92" s="23"/>
     </row>
-    <row r="93" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="93" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="40"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
       <c r="H93" s="14"/>
       <c r="I93" s="33"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="51"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="50"/>
       <c r="N93" s="21"/>
       <c r="O93" s="23"/>
       <c r="P93" s="23"/>
@@ -5589,20 +5254,20 @@
       <c r="X93" s="21"/>
       <c r="Y93" s="23"/>
     </row>
-    <row r="94" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="94" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="40"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
       <c r="H94" s="14"/>
       <c r="I94" s="33"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="51"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="50"/>
       <c r="N94" s="21"/>
       <c r="O94" s="23"/>
       <c r="P94" s="23"/>
@@ -5613,7 +5278,7 @@
       <c r="X94" s="21"/>
       <c r="Y94" s="23"/>
     </row>
-    <row r="95" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="95" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="40"/>
@@ -5623,7 +5288,7 @@
       <c r="G95" s="31"/>
       <c r="H95" s="14"/>
       <c r="I95" s="33"/>
-      <c r="J95" s="48"/>
+      <c r="J95" s="47"/>
       <c r="K95" s="35"/>
       <c r="L95" s="32"/>
       <c r="M95" s="35"/>
@@ -5637,7 +5302,7 @@
       <c r="X95" s="21"/>
       <c r="Y95" s="23"/>
     </row>
-    <row r="96" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="96" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="36"/>
@@ -5647,7 +5312,7 @@
       <c r="G96" s="31"/>
       <c r="H96" s="14"/>
       <c r="I96" s="33"/>
-      <c r="J96" s="48"/>
+      <c r="J96" s="47"/>
       <c r="K96" s="35"/>
       <c r="L96" s="32"/>
       <c r="M96" s="35"/>
@@ -5661,7 +5326,7 @@
       <c r="X96" s="21"/>
       <c r="Y96" s="23"/>
     </row>
-    <row r="97" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="97" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="36"/>
@@ -5671,7 +5336,7 @@
       <c r="G97" s="31"/>
       <c r="H97" s="14"/>
       <c r="I97" s="33"/>
-      <c r="J97" s="48"/>
+      <c r="J97" s="47"/>
       <c r="K97" s="35"/>
       <c r="L97" s="32"/>
       <c r="M97" s="39"/>
@@ -5685,7 +5350,7 @@
       <c r="X97" s="21"/>
       <c r="Y97" s="23"/>
     </row>
-    <row r="98" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="98" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="36"/>
@@ -5695,7 +5360,7 @@
       <c r="G98" s="31"/>
       <c r="H98" s="14"/>
       <c r="I98" s="33"/>
-      <c r="J98" s="48"/>
+      <c r="J98" s="47"/>
       <c r="K98" s="35"/>
       <c r="L98" s="32"/>
       <c r="M98" s="39"/>
@@ -5709,7 +5374,7 @@
       <c r="X98" s="21"/>
       <c r="Y98" s="23"/>
     </row>
-    <row r="99" spans="1:25" s="22" customFormat="1" ht="204" customHeight="1">
+    <row r="99" spans="1:25" s="22" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="36"/>
@@ -5719,7 +5384,7 @@
       <c r="G99" s="31"/>
       <c r="H99" s="14"/>
       <c r="I99" s="33"/>
-      <c r="J99" s="48"/>
+      <c r="J99" s="47"/>
       <c r="K99" s="35"/>
       <c r="L99" s="32"/>
       <c r="M99" s="39"/>
@@ -5733,7 +5398,7 @@
       <c r="X99" s="21"/>
       <c r="Y99" s="23"/>
     </row>
-    <row r="100" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="100" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="36"/>
@@ -5743,7 +5408,7 @@
       <c r="G100" s="31"/>
       <c r="H100" s="14"/>
       <c r="I100" s="33"/>
-      <c r="J100" s="48"/>
+      <c r="J100" s="47"/>
       <c r="K100" s="35"/>
       <c r="L100" s="32"/>
       <c r="M100" s="39"/>
@@ -5757,7 +5422,7 @@
       <c r="X100" s="21"/>
       <c r="Y100" s="23"/>
     </row>
-    <row r="101" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="101" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="36"/>
@@ -5767,7 +5432,7 @@
       <c r="G101" s="31"/>
       <c r="H101" s="14"/>
       <c r="I101" s="33"/>
-      <c r="J101" s="48"/>
+      <c r="J101" s="47"/>
       <c r="K101" s="35"/>
       <c r="L101" s="32"/>
       <c r="M101" s="35"/>
@@ -5781,7 +5446,7 @@
       <c r="X101" s="21"/>
       <c r="Y101" s="23"/>
     </row>
-    <row r="102" spans="1:25" ht="17.5">
+    <row r="102" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="36"/>
@@ -5791,12 +5456,12 @@
       <c r="G102" s="31"/>
       <c r="H102" s="14"/>
       <c r="I102" s="33"/>
-      <c r="J102" s="48"/>
+      <c r="J102" s="47"/>
       <c r="K102" s="35"/>
       <c r="L102" s="32"/>
       <c r="M102" s="35"/>
     </row>
-    <row r="103" spans="1:25" ht="158.5" customHeight="1">
+    <row r="103" spans="1:25" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="36"/>
@@ -5806,12 +5471,12 @@
       <c r="G103" s="31"/>
       <c r="H103" s="14"/>
       <c r="I103" s="33"/>
-      <c r="J103" s="48"/>
+      <c r="J103" s="47"/>
       <c r="K103" s="35"/>
       <c r="L103" s="32"/>
       <c r="M103" s="35"/>
     </row>
-    <row r="104" spans="1:25" ht="17.5">
+    <row r="104" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="36"/>
@@ -5821,12 +5486,12 @@
       <c r="G104" s="31"/>
       <c r="H104" s="14"/>
       <c r="I104" s="33"/>
-      <c r="J104" s="48"/>
+      <c r="J104" s="47"/>
       <c r="K104" s="35"/>
       <c r="L104" s="32"/>
       <c r="M104" s="39"/>
     </row>
-    <row r="105" spans="1:25" ht="91.75" customHeight="1">
+    <row r="105" spans="1:25" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="36"/>
@@ -5836,12 +5501,12 @@
       <c r="G105" s="31"/>
       <c r="H105" s="14"/>
       <c r="I105" s="33"/>
-      <c r="J105" s="48"/>
+      <c r="J105" s="47"/>
       <c r="K105" s="35"/>
       <c r="L105" s="32"/>
       <c r="M105" s="39"/>
     </row>
-    <row r="106" spans="1:25" ht="165" customHeight="1">
+    <row r="106" spans="1:25" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="36"/>
@@ -5851,12 +5516,12 @@
       <c r="G106" s="31"/>
       <c r="H106" s="14"/>
       <c r="I106" s="33"/>
-      <c r="J106" s="48"/>
+      <c r="J106" s="47"/>
       <c r="K106" s="35"/>
-      <c r="L106" s="50"/>
-      <c r="M106" s="51"/>
-    </row>
-    <row r="107" spans="1:25" ht="108" customHeight="1">
+      <c r="L106" s="49"/>
+      <c r="M106" s="50"/>
+    </row>
+    <row r="107" spans="1:25" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="36"/>
@@ -5866,12 +5531,12 @@
       <c r="G107" s="31"/>
       <c r="H107" s="14"/>
       <c r="I107" s="33"/>
-      <c r="J107" s="48"/>
+      <c r="J107" s="47"/>
       <c r="K107" s="35"/>
       <c r="L107" s="32"/>
       <c r="M107" s="43"/>
     </row>
-    <row r="108" spans="1:25" ht="101" customHeight="1">
+    <row r="108" spans="1:25" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="36"/>
@@ -5881,12 +5546,12 @@
       <c r="G108" s="31"/>
       <c r="H108" s="14"/>
       <c r="I108" s="33"/>
-      <c r="J108" s="48"/>
+      <c r="J108" s="47"/>
       <c r="K108" s="35"/>
       <c r="L108" s="32"/>
       <c r="M108" s="43"/>
     </row>
-    <row r="109" spans="1:25" ht="88" customHeight="1">
+    <row r="109" spans="1:25" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="40"/>
@@ -5896,12 +5561,12 @@
       <c r="G109" s="40"/>
       <c r="H109" s="14"/>
       <c r="I109" s="33"/>
-      <c r="J109" s="48"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="35"/>
       <c r="L109" s="42"/>
       <c r="M109" s="43"/>
     </row>
-    <row r="110" spans="1:25" ht="98" customHeight="1">
+    <row r="110" spans="1:25" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="40"/>
@@ -5911,12 +5576,12 @@
       <c r="G110" s="40"/>
       <c r="H110" s="14"/>
       <c r="I110" s="33"/>
-      <c r="J110" s="48"/>
+      <c r="J110" s="47"/>
       <c r="K110" s="35"/>
       <c r="L110" s="42"/>
       <c r="M110" s="43"/>
     </row>
-    <row r="111" spans="1:25" ht="156" customHeight="1">
+    <row r="111" spans="1:25" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="40"/>
@@ -5926,12 +5591,12 @@
       <c r="G111" s="31"/>
       <c r="H111" s="14"/>
       <c r="I111" s="33"/>
-      <c r="J111" s="48"/>
+      <c r="J111" s="47"/>
       <c r="K111" s="35"/>
       <c r="L111" s="32"/>
       <c r="M111" s="35"/>
     </row>
-    <row r="112" spans="1:25" ht="172.5" customHeight="1">
+    <row r="112" spans="1:25" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="40"/>
@@ -5941,12 +5606,12 @@
       <c r="G112" s="31"/>
       <c r="H112" s="14"/>
       <c r="I112" s="33"/>
-      <c r="J112" s="48"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="35"/>
       <c r="L112" s="32"/>
       <c r="M112" s="35"/>
     </row>
-    <row r="113" spans="1:13" ht="79" customHeight="1">
+    <row r="113" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="40"/>
@@ -5956,12 +5621,12 @@
       <c r="G113" s="31"/>
       <c r="H113" s="14"/>
       <c r="I113" s="33"/>
-      <c r="J113" s="48"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="35"/>
       <c r="L113" s="32"/>
       <c r="M113" s="35"/>
     </row>
-    <row r="114" spans="1:13" ht="102.5" customHeight="1">
+    <row r="114" spans="1:13" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="40"/>
@@ -5971,12 +5636,12 @@
       <c r="G114" s="31"/>
       <c r="H114" s="14"/>
       <c r="I114" s="33"/>
-      <c r="J114" s="48"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="35"/>
       <c r="L114" s="32"/>
       <c r="M114" s="35"/>
     </row>
-    <row r="115" spans="1:13" ht="51" customHeight="1">
+    <row r="115" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="40"/>
@@ -5986,12 +5651,12 @@
       <c r="G115" s="31"/>
       <c r="H115" s="14"/>
       <c r="I115" s="33"/>
-      <c r="J115" s="48"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="35"/>
       <c r="L115" s="32"/>
       <c r="M115" s="35"/>
     </row>
-    <row r="116" spans="1:13" ht="121.25" customHeight="1">
+    <row r="116" spans="1:13" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="40"/>
@@ -6001,12 +5666,12 @@
       <c r="G116" s="31"/>
       <c r="H116" s="14"/>
       <c r="I116" s="33"/>
-      <c r="J116" s="48"/>
+      <c r="J116" s="47"/>
       <c r="K116" s="35"/>
       <c r="L116" s="32"/>
       <c r="M116" s="35"/>
     </row>
-    <row r="117" spans="1:13" ht="49.5" customHeight="1">
+    <row r="117" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="40"/>
@@ -6016,12 +5681,12 @@
       <c r="G117" s="31"/>
       <c r="H117" s="14"/>
       <c r="I117" s="33"/>
-      <c r="J117" s="48"/>
+      <c r="J117" s="47"/>
       <c r="K117" s="35"/>
       <c r="L117" s="32"/>
       <c r="M117" s="35"/>
     </row>
-    <row r="118" spans="1:13" ht="56.4" customHeight="1">
+    <row r="118" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="40"/>
@@ -6031,12 +5696,12 @@
       <c r="G118" s="31"/>
       <c r="H118" s="14"/>
       <c r="I118" s="33"/>
-      <c r="J118" s="48"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="35"/>
       <c r="L118" s="32"/>
       <c r="M118" s="35"/>
     </row>
-    <row r="119" spans="1:13" ht="104" customHeight="1">
+    <row r="119" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="40"/>
@@ -6046,12 +5711,12 @@
       <c r="G119" s="31"/>
       <c r="H119" s="14"/>
       <c r="I119" s="33"/>
-      <c r="J119" s="48"/>
+      <c r="J119" s="47"/>
       <c r="K119" s="35"/>
       <c r="L119" s="32"/>
       <c r="M119" s="35"/>
     </row>
-    <row r="120" spans="1:13" ht="95.4" customHeight="1">
+    <row r="120" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="40"/>
@@ -6061,12 +5726,12 @@
       <c r="G120" s="31"/>
       <c r="H120" s="14"/>
       <c r="I120" s="33"/>
-      <c r="J120" s="48"/>
+      <c r="J120" s="47"/>
       <c r="K120" s="35"/>
       <c r="L120" s="32"/>
       <c r="M120" s="35"/>
     </row>
-    <row r="121" spans="1:13" ht="78" customHeight="1">
+    <row r="121" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="40"/>
@@ -6076,12 +5741,12 @@
       <c r="G121" s="31"/>
       <c r="H121" s="14"/>
       <c r="I121" s="33"/>
-      <c r="J121" s="48"/>
+      <c r="J121" s="47"/>
       <c r="K121" s="35"/>
       <c r="L121" s="32"/>
       <c r="M121" s="35"/>
     </row>
-    <row r="122" spans="1:13" ht="17.5">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="40"/>
@@ -6091,12 +5756,12 @@
       <c r="G122" s="31"/>
       <c r="H122" s="14"/>
       <c r="I122" s="33"/>
-      <c r="J122" s="48"/>
+      <c r="J122" s="47"/>
       <c r="K122" s="35"/>
       <c r="L122" s="32"/>
       <c r="M122" s="35"/>
     </row>
-    <row r="123" spans="1:13" ht="17.5">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="40"/>
@@ -6106,12 +5771,12 @@
       <c r="G123" s="31"/>
       <c r="H123" s="14"/>
       <c r="I123" s="33"/>
-      <c r="J123" s="48"/>
+      <c r="J123" s="47"/>
       <c r="K123" s="35"/>
       <c r="L123" s="32"/>
       <c r="M123" s="35"/>
     </row>
-    <row r="124" spans="1:13" ht="17.5">
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="40"/>
@@ -6121,12 +5786,12 @@
       <c r="G124" s="31"/>
       <c r="H124" s="14"/>
       <c r="I124" s="33"/>
-      <c r="J124" s="48"/>
+      <c r="J124" s="47"/>
       <c r="K124" s="35"/>
       <c r="L124" s="32"/>
       <c r="M124" s="35"/>
     </row>
-    <row r="125" spans="1:13" ht="17.5">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="40"/>
@@ -6136,12 +5801,12 @@
       <c r="G125" s="31"/>
       <c r="H125" s="14"/>
       <c r="I125" s="33"/>
-      <c r="J125" s="48"/>
+      <c r="J125" s="47"/>
       <c r="K125" s="35"/>
       <c r="L125" s="32"/>
       <c r="M125" s="35"/>
     </row>
-    <row r="126" spans="1:13" ht="17.5">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="40"/>
@@ -6151,12 +5816,12 @@
       <c r="G126" s="31"/>
       <c r="H126" s="14"/>
       <c r="I126" s="33"/>
-      <c r="J126" s="48"/>
+      <c r="J126" s="47"/>
       <c r="K126" s="35"/>
       <c r="L126" s="32"/>
       <c r="M126" s="35"/>
     </row>
-    <row r="127" spans="1:13" ht="17.5">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="40"/>
@@ -6166,12 +5831,12 @@
       <c r="G127" s="31"/>
       <c r="H127" s="14"/>
       <c r="I127" s="33"/>
-      <c r="J127" s="48"/>
+      <c r="J127" s="47"/>
       <c r="K127" s="35"/>
       <c r="L127" s="32"/>
       <c r="M127" s="35"/>
     </row>
-    <row r="128" spans="1:13" ht="17.5">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="40"/>
@@ -6181,12 +5846,12 @@
       <c r="G128" s="31"/>
       <c r="H128" s="14"/>
       <c r="I128" s="33"/>
-      <c r="J128" s="48"/>
+      <c r="J128" s="47"/>
       <c r="K128" s="35"/>
       <c r="L128" s="32"/>
       <c r="M128" s="35"/>
     </row>
-    <row r="129" spans="1:13" ht="17.5">
+    <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="40"/>
@@ -6196,12 +5861,12 @@
       <c r="G129" s="31"/>
       <c r="H129" s="14"/>
       <c r="I129" s="33"/>
-      <c r="J129" s="48"/>
+      <c r="J129" s="47"/>
       <c r="K129" s="35"/>
       <c r="L129" s="32"/>
       <c r="M129" s="35"/>
     </row>
-    <row r="130" spans="1:13" ht="108" customHeight="1">
+    <row r="130" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="40"/>
@@ -6211,12 +5876,12 @@
       <c r="G130" s="31"/>
       <c r="H130" s="14"/>
       <c r="I130" s="33"/>
-      <c r="J130" s="48"/>
+      <c r="J130" s="47"/>
       <c r="K130" s="35"/>
       <c r="L130" s="32"/>
       <c r="M130" s="35"/>
     </row>
-    <row r="131" spans="1:13" ht="17.5">
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="40"/>
@@ -6226,12 +5891,12 @@
       <c r="G131" s="31"/>
       <c r="H131" s="14"/>
       <c r="I131" s="33"/>
-      <c r="J131" s="48"/>
+      <c r="J131" s="47"/>
       <c r="K131" s="35"/>
       <c r="L131" s="32"/>
       <c r="M131" s="35"/>
     </row>
-    <row r="132" spans="1:13" ht="17.5">
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="40"/>
@@ -6241,12 +5906,12 @@
       <c r="G132" s="31"/>
       <c r="H132" s="14"/>
       <c r="I132" s="33"/>
-      <c r="J132" s="48"/>
+      <c r="J132" s="47"/>
       <c r="K132" s="35"/>
       <c r="L132" s="32"/>
       <c r="M132" s="35"/>
     </row>
-    <row r="133" spans="1:13" ht="70.75" customHeight="1">
+    <row r="133" spans="1:13" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="40"/>
@@ -6256,12 +5921,12 @@
       <c r="G133" s="31"/>
       <c r="H133" s="14"/>
       <c r="I133" s="33"/>
-      <c r="J133" s="48"/>
+      <c r="J133" s="47"/>
       <c r="K133" s="35"/>
       <c r="L133" s="32"/>
       <c r="M133" s="35"/>
     </row>
-    <row r="134" spans="1:13" ht="17.5">
+    <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="40"/>
@@ -6271,72 +5936,72 @@
       <c r="G134" s="31"/>
       <c r="H134" s="14"/>
       <c r="I134" s="33"/>
-      <c r="J134" s="48"/>
+      <c r="J134" s="47"/>
       <c r="K134" s="35"/>
       <c r="L134" s="32"/>
       <c r="M134" s="35"/>
     </row>
-    <row r="135" spans="1:13" ht="17.5">
+    <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="40"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
       <c r="H135" s="14"/>
       <c r="I135" s="33"/>
-      <c r="J135" s="48"/>
+      <c r="J135" s="47"/>
       <c r="K135" s="35"/>
       <c r="L135" s="32"/>
       <c r="M135" s="35"/>
     </row>
-    <row r="136" spans="1:13" ht="17.5">
+    <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="40"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
       <c r="H136" s="14"/>
       <c r="I136" s="33"/>
-      <c r="J136" s="48"/>
+      <c r="J136" s="47"/>
       <c r="K136" s="35"/>
       <c r="L136" s="32"/>
       <c r="M136" s="35"/>
     </row>
-    <row r="137" spans="1:13" ht="17.5">
+    <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="40"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
       <c r="H137" s="14"/>
       <c r="I137" s="33"/>
-      <c r="J137" s="48"/>
+      <c r="J137" s="47"/>
       <c r="K137" s="35"/>
       <c r="L137" s="32"/>
       <c r="M137" s="35"/>
     </row>
-    <row r="138" spans="1:13" ht="17.5">
+    <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="40"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
       <c r="H138" s="14"/>
       <c r="I138" s="33"/>
-      <c r="J138" s="48"/>
+      <c r="J138" s="47"/>
       <c r="K138" s="39"/>
       <c r="L138" s="32"/>
       <c r="M138" s="35"/>
     </row>
-    <row r="139" spans="1:13" ht="17.5">
+    <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="40"/>
@@ -6346,12 +6011,12 @@
       <c r="G139" s="31"/>
       <c r="H139" s="14"/>
       <c r="I139" s="33"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="47"/>
       <c r="K139" s="35"/>
       <c r="L139" s="32"/>
       <c r="M139" s="35"/>
     </row>
-    <row r="140" spans="1:13" ht="17.5">
+    <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="36"/>
@@ -6361,12 +6026,12 @@
       <c r="G140" s="31"/>
       <c r="H140" s="14"/>
       <c r="I140" s="33"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="47"/>
       <c r="K140" s="35"/>
       <c r="L140" s="32"/>
       <c r="M140" s="43"/>
     </row>
-    <row r="141" spans="1:13" ht="17.5">
+    <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="40"/>
@@ -6376,12 +6041,12 @@
       <c r="G141" s="40"/>
       <c r="H141" s="14"/>
       <c r="I141" s="33"/>
-      <c r="J141" s="48"/>
+      <c r="J141" s="47"/>
       <c r="K141" s="35"/>
       <c r="L141" s="42"/>
       <c r="M141" s="43"/>
     </row>
-    <row r="142" spans="1:13" ht="17.5">
+    <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="40"/>
@@ -6391,12 +6056,12 @@
       <c r="G142" s="40"/>
       <c r="H142" s="14"/>
       <c r="I142" s="33"/>
-      <c r="J142" s="48"/>
+      <c r="J142" s="47"/>
       <c r="K142" s="35"/>
       <c r="L142" s="42"/>
       <c r="M142" s="43"/>
     </row>
-    <row r="143" spans="1:13" ht="17.5">
+    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="40"/>
@@ -6406,12 +6071,12 @@
       <c r="G143" s="40"/>
       <c r="H143" s="14"/>
       <c r="I143" s="33"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="47"/>
       <c r="K143" s="35"/>
       <c r="L143" s="42"/>
       <c r="M143" s="43"/>
     </row>
-    <row r="144" spans="1:13" ht="17.5">
+    <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="40"/>
@@ -6421,12 +6086,12 @@
       <c r="G144" s="40"/>
       <c r="H144" s="14"/>
       <c r="I144" s="33"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="47"/>
       <c r="K144" s="35"/>
       <c r="L144" s="42"/>
       <c r="M144" s="43"/>
     </row>
-    <row r="145" spans="1:25" ht="17.5">
+    <row r="145" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="40"/>
@@ -6436,12 +6101,12 @@
       <c r="G145" s="40"/>
       <c r="H145" s="14"/>
       <c r="I145" s="33"/>
-      <c r="J145" s="48"/>
+      <c r="J145" s="47"/>
       <c r="K145" s="35"/>
       <c r="L145" s="42"/>
       <c r="M145" s="43"/>
     </row>
-    <row r="146" spans="1:25" ht="88" customHeight="1">
+    <row r="146" spans="1:25" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="40"/>
@@ -6451,12 +6116,12 @@
       <c r="G146" s="40"/>
       <c r="H146" s="14"/>
       <c r="I146" s="33"/>
-      <c r="J146" s="48"/>
+      <c r="J146" s="47"/>
       <c r="K146" s="35"/>
       <c r="L146" s="42"/>
       <c r="M146" s="43"/>
     </row>
-    <row r="147" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="147" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="40"/>
@@ -6466,7 +6131,7 @@
       <c r="G147" s="40"/>
       <c r="H147" s="14"/>
       <c r="I147" s="33"/>
-      <c r="J147" s="48"/>
+      <c r="J147" s="47"/>
       <c r="K147" s="35"/>
       <c r="L147" s="42"/>
       <c r="M147" s="43"/>
@@ -6480,7 +6145,7 @@
       <c r="X147" s="21"/>
       <c r="Y147" s="23"/>
     </row>
-    <row r="148" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="148" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="40"/>
@@ -6490,7 +6155,7 @@
       <c r="G148" s="40"/>
       <c r="H148" s="14"/>
       <c r="I148" s="33"/>
-      <c r="J148" s="48"/>
+      <c r="J148" s="47"/>
       <c r="K148" s="35"/>
       <c r="L148" s="42"/>
       <c r="M148" s="43"/>
@@ -6504,7 +6169,7 @@
       <c r="X148" s="21"/>
       <c r="Y148" s="23"/>
     </row>
-    <row r="149" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="149" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="40"/>
@@ -6514,7 +6179,7 @@
       <c r="G149" s="40"/>
       <c r="H149" s="14"/>
       <c r="I149" s="33"/>
-      <c r="J149" s="48"/>
+      <c r="J149" s="47"/>
       <c r="K149" s="35"/>
       <c r="L149" s="42"/>
       <c r="M149" s="43"/>
@@ -6528,7 +6193,7 @@
       <c r="X149" s="21"/>
       <c r="Y149" s="23"/>
     </row>
-    <row r="150" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="150" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="36"/>
@@ -6538,7 +6203,7 @@
       <c r="G150" s="31"/>
       <c r="H150" s="14"/>
       <c r="I150" s="33"/>
-      <c r="J150" s="48"/>
+      <c r="J150" s="47"/>
       <c r="K150" s="35"/>
       <c r="L150" s="32"/>
       <c r="M150" s="35"/>
@@ -6552,7 +6217,7 @@
       <c r="X150" s="21"/>
       <c r="Y150" s="23"/>
     </row>
-    <row r="151" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="151" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="36"/>
@@ -6562,7 +6227,7 @@
       <c r="G151" s="31"/>
       <c r="H151" s="14"/>
       <c r="I151" s="33"/>
-      <c r="J151" s="48"/>
+      <c r="J151" s="47"/>
       <c r="K151" s="35"/>
       <c r="L151" s="32"/>
       <c r="M151" s="35"/>
@@ -6576,7 +6241,7 @@
       <c r="X151" s="21"/>
       <c r="Y151" s="23"/>
     </row>
-    <row r="152" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="152" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="36"/>
@@ -6586,7 +6251,7 @@
       <c r="G152" s="31"/>
       <c r="H152" s="14"/>
       <c r="I152" s="33"/>
-      <c r="J152" s="48"/>
+      <c r="J152" s="47"/>
       <c r="K152" s="35"/>
       <c r="L152" s="32"/>
       <c r="M152" s="43"/>
@@ -6600,7 +6265,7 @@
       <c r="X152" s="21"/>
       <c r="Y152" s="23"/>
     </row>
-    <row r="153" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="153" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="36"/>
@@ -6610,7 +6275,7 @@
       <c r="G153" s="31"/>
       <c r="H153" s="14"/>
       <c r="I153" s="33"/>
-      <c r="J153" s="48"/>
+      <c r="J153" s="47"/>
       <c r="K153" s="35"/>
       <c r="L153" s="32"/>
       <c r="M153" s="43"/>
@@ -6624,7 +6289,7 @@
       <c r="X153" s="21"/>
       <c r="Y153" s="23"/>
     </row>
-    <row r="154" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="154" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="40"/>
@@ -6634,7 +6299,7 @@
       <c r="G154" s="40"/>
       <c r="H154" s="14"/>
       <c r="I154" s="33"/>
-      <c r="J154" s="48"/>
+      <c r="J154" s="47"/>
       <c r="K154" s="35"/>
       <c r="L154" s="42"/>
       <c r="M154" s="43"/>
@@ -6648,7 +6313,7 @@
       <c r="X154" s="21"/>
       <c r="Y154" s="23"/>
     </row>
-    <row r="155" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="155" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="36"/>
@@ -6658,7 +6323,7 @@
       <c r="G155" s="29"/>
       <c r="H155" s="14"/>
       <c r="I155" s="33"/>
-      <c r="J155" s="48"/>
+      <c r="J155" s="47"/>
       <c r="K155" s="35"/>
       <c r="L155" s="37"/>
       <c r="M155" s="39"/>
@@ -6672,17 +6337,17 @@
       <c r="X155" s="21"/>
       <c r="Y155" s="23"/>
     </row>
-    <row r="156" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="156" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="49"/>
+      <c r="C156" s="48"/>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
       <c r="F156" s="29"/>
       <c r="G156" s="29"/>
       <c r="H156" s="14"/>
       <c r="I156" s="31"/>
-      <c r="J156" s="48"/>
+      <c r="J156" s="47"/>
       <c r="K156" s="35"/>
       <c r="L156" s="32"/>
       <c r="M156" s="35"/>
@@ -6696,7 +6361,7 @@
       <c r="X156" s="21"/>
       <c r="Y156" s="23"/>
     </row>
-    <row r="157" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="157" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="36"/>
@@ -6706,7 +6371,7 @@
       <c r="G157" s="29"/>
       <c r="H157" s="14"/>
       <c r="I157" s="31"/>
-      <c r="J157" s="48"/>
+      <c r="J157" s="47"/>
       <c r="K157" s="35"/>
       <c r="L157" s="32"/>
       <c r="M157" s="35"/>
@@ -6720,7 +6385,7 @@
       <c r="X157" s="21"/>
       <c r="Y157" s="23"/>
     </row>
-    <row r="158" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="158" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="36"/>
@@ -6730,7 +6395,7 @@
       <c r="G158" s="29"/>
       <c r="H158" s="14"/>
       <c r="I158" s="31"/>
-      <c r="J158" s="48"/>
+      <c r="J158" s="47"/>
       <c r="K158" s="35"/>
       <c r="L158" s="32"/>
       <c r="M158" s="35"/>
@@ -6744,7 +6409,7 @@
       <c r="X158" s="21"/>
       <c r="Y158" s="23"/>
     </row>
-    <row r="159" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="159" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="36"/>
@@ -6754,7 +6419,7 @@
       <c r="G159" s="29"/>
       <c r="H159" s="14"/>
       <c r="I159" s="31"/>
-      <c r="J159" s="48"/>
+      <c r="J159" s="47"/>
       <c r="K159" s="35"/>
       <c r="L159" s="32"/>
       <c r="M159" s="35"/>
@@ -6768,7 +6433,7 @@
       <c r="X159" s="21"/>
       <c r="Y159" s="23"/>
     </row>
-    <row r="160" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="160" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="36"/>
@@ -6778,7 +6443,7 @@
       <c r="G160" s="29"/>
       <c r="H160" s="14"/>
       <c r="I160" s="31"/>
-      <c r="J160" s="48"/>
+      <c r="J160" s="47"/>
       <c r="K160" s="35"/>
       <c r="L160" s="32"/>
       <c r="M160" s="35"/>
@@ -6792,7 +6457,7 @@
       <c r="X160" s="21"/>
       <c r="Y160" s="23"/>
     </row>
-    <row r="161" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="161" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="36"/>
@@ -6802,7 +6467,7 @@
       <c r="G161" s="29"/>
       <c r="H161" s="14"/>
       <c r="I161" s="31"/>
-      <c r="J161" s="48"/>
+      <c r="J161" s="47"/>
       <c r="K161" s="35"/>
       <c r="L161" s="32"/>
       <c r="M161" s="35"/>
@@ -6816,7 +6481,7 @@
       <c r="X161" s="21"/>
       <c r="Y161" s="23"/>
     </row>
-    <row r="162" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="162" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="36"/>
@@ -6826,7 +6491,7 @@
       <c r="G162" s="29"/>
       <c r="H162" s="14"/>
       <c r="I162" s="31"/>
-      <c r="J162" s="48"/>
+      <c r="J162" s="47"/>
       <c r="K162" s="35"/>
       <c r="L162" s="32"/>
       <c r="M162" s="35"/>
@@ -6840,7 +6505,7 @@
       <c r="X162" s="21"/>
       <c r="Y162" s="23"/>
     </row>
-    <row r="163" spans="1:25" s="22" customFormat="1" ht="145.25" customHeight="1">
+    <row r="163" spans="1:25" s="22" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="36"/>
@@ -6850,7 +6515,7 @@
       <c r="G163" s="29"/>
       <c r="H163" s="14"/>
       <c r="I163" s="31"/>
-      <c r="J163" s="48"/>
+      <c r="J163" s="47"/>
       <c r="K163" s="35"/>
       <c r="L163" s="32"/>
       <c r="M163" s="35"/>
@@ -6864,7 +6529,7 @@
       <c r="X163" s="21"/>
       <c r="Y163" s="23"/>
     </row>
-    <row r="164" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="164" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="36"/>
@@ -6874,7 +6539,7 @@
       <c r="G164" s="29"/>
       <c r="H164" s="14"/>
       <c r="I164" s="31"/>
-      <c r="J164" s="48"/>
+      <c r="J164" s="47"/>
       <c r="K164" s="35"/>
       <c r="L164" s="32"/>
       <c r="M164" s="35"/>
@@ -6888,7 +6553,7 @@
       <c r="X164" s="21"/>
       <c r="Y164" s="23"/>
     </row>
-    <row r="165" spans="1:25" s="22" customFormat="1" ht="112.25" customHeight="1">
+    <row r="165" spans="1:25" s="22" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="36"/>
@@ -6898,7 +6563,7 @@
       <c r="G165" s="29"/>
       <c r="H165" s="14"/>
       <c r="I165" s="31"/>
-      <c r="J165" s="48"/>
+      <c r="J165" s="47"/>
       <c r="K165" s="35"/>
       <c r="L165" s="32"/>
       <c r="M165" s="35"/>
@@ -6912,7 +6577,7 @@
       <c r="X165" s="21"/>
       <c r="Y165" s="23"/>
     </row>
-    <row r="166" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="166" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="36"/>
@@ -6922,7 +6587,7 @@
       <c r="G166" s="29"/>
       <c r="H166" s="14"/>
       <c r="I166" s="31"/>
-      <c r="J166" s="48"/>
+      <c r="J166" s="47"/>
       <c r="K166" s="35"/>
       <c r="L166" s="32"/>
       <c r="M166" s="35"/>
@@ -6936,7 +6601,7 @@
       <c r="X166" s="21"/>
       <c r="Y166" s="23"/>
     </row>
-    <row r="167" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="167" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="36"/>
@@ -6946,7 +6611,7 @@
       <c r="G167" s="29"/>
       <c r="H167" s="14"/>
       <c r="I167" s="31"/>
-      <c r="J167" s="48"/>
+      <c r="J167" s="47"/>
       <c r="K167" s="35"/>
       <c r="L167" s="32"/>
       <c r="M167" s="35"/>
@@ -6960,7 +6625,7 @@
       <c r="X167" s="21"/>
       <c r="Y167" s="23"/>
     </row>
-    <row r="168" spans="1:25" s="22" customFormat="1" ht="132.65" customHeight="1">
+    <row r="168" spans="1:25" s="22" customFormat="1" ht="132.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="36"/>
@@ -6970,7 +6635,7 @@
       <c r="G168" s="29"/>
       <c r="H168" s="14"/>
       <c r="I168" s="31"/>
-      <c r="J168" s="48"/>
+      <c r="J168" s="47"/>
       <c r="K168" s="39"/>
       <c r="L168" s="37"/>
       <c r="M168" s="39"/>
@@ -6984,7 +6649,7 @@
       <c r="X168" s="21"/>
       <c r="Y168" s="23"/>
     </row>
-    <row r="169" spans="1:25" s="22" customFormat="1" ht="120.65" customHeight="1">
+    <row r="169" spans="1:25" s="22" customFormat="1" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="36"/>
@@ -6994,7 +6659,7 @@
       <c r="G169" s="29"/>
       <c r="H169" s="14"/>
       <c r="I169" s="31"/>
-      <c r="J169" s="48"/>
+      <c r="J169" s="47"/>
       <c r="K169" s="35"/>
       <c r="L169" s="32"/>
       <c r="M169" s="35"/>
@@ -7008,7 +6673,7 @@
       <c r="X169" s="21"/>
       <c r="Y169" s="23"/>
     </row>
-    <row r="170" spans="1:25" s="22" customFormat="1" ht="17.5">
+    <row r="170" spans="1:25" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="36"/>
@@ -7018,7 +6683,7 @@
       <c r="G170" s="29"/>
       <c r="H170" s="14"/>
       <c r="I170" s="31"/>
-      <c r="J170" s="48"/>
+      <c r="J170" s="47"/>
       <c r="K170" s="39"/>
       <c r="L170" s="37"/>
       <c r="M170" s="39"/>
@@ -7032,7 +6697,7 @@
       <c r="X170" s="21"/>
       <c r="Y170" s="23"/>
     </row>
-    <row r="171" spans="1:25" s="22" customFormat="1" ht="121.25" customHeight="1">
+    <row r="171" spans="1:25" s="22" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="36"/>
@@ -7042,7 +6707,7 @@
       <c r="G171" s="29"/>
       <c r="H171" s="14"/>
       <c r="I171" s="31"/>
-      <c r="J171" s="48"/>
+      <c r="J171" s="47"/>
       <c r="K171" s="39"/>
       <c r="L171" s="32"/>
       <c r="M171" s="43"/>
@@ -7056,7 +6721,7 @@
       <c r="X171" s="21"/>
       <c r="Y171" s="23"/>
     </row>
-    <row r="172" spans="1:25" s="22" customFormat="1" ht="82.75" customHeight="1">
+    <row r="172" spans="1:25" s="22" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="36"/>
@@ -7066,7 +6731,7 @@
       <c r="G172" s="29"/>
       <c r="H172" s="14"/>
       <c r="I172" s="31"/>
-      <c r="J172" s="48"/>
+      <c r="J172" s="47"/>
       <c r="K172" s="35"/>
       <c r="L172" s="32"/>
       <c r="M172" s="43"/>
@@ -7080,7 +6745,7 @@
       <c r="X172" s="21"/>
       <c r="Y172" s="23"/>
     </row>
-    <row r="173" spans="1:25" s="22" customFormat="1" ht="111" customHeight="1">
+    <row r="173" spans="1:25" s="22" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="40"/>
@@ -7090,7 +6755,7 @@
       <c r="G173" s="29"/>
       <c r="H173" s="14"/>
       <c r="I173" s="31"/>
-      <c r="J173" s="48"/>
+      <c r="J173" s="47"/>
       <c r="K173" s="35"/>
       <c r="L173" s="42"/>
       <c r="M173" s="43"/>
@@ -7104,7 +6769,7 @@
       <c r="X173" s="21"/>
       <c r="Y173" s="23"/>
     </row>
-    <row r="174" spans="1:25" s="22" customFormat="1" ht="91.25" customHeight="1">
+    <row r="174" spans="1:25" s="22" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="40"/>
@@ -7114,7 +6779,7 @@
       <c r="G174" s="29"/>
       <c r="H174" s="14"/>
       <c r="I174" s="31"/>
-      <c r="J174" s="48"/>
+      <c r="J174" s="47"/>
       <c r="K174" s="35"/>
       <c r="L174" s="42"/>
       <c r="M174" s="43"/>
@@ -7128,7 +6793,7 @@
       <c r="X174" s="21"/>
       <c r="Y174" s="23"/>
     </row>
-    <row r="175" spans="1:25" s="22" customFormat="1" ht="63.65" customHeight="1">
+    <row r="175" spans="1:25" s="22" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="40"/>
@@ -7138,7 +6803,7 @@
       <c r="G175" s="29"/>
       <c r="H175" s="14"/>
       <c r="I175" s="31"/>
-      <c r="J175" s="48"/>
+      <c r="J175" s="47"/>
       <c r="K175" s="35"/>
       <c r="L175" s="32"/>
       <c r="M175" s="35"/>
@@ -7152,7 +6817,7 @@
       <c r="X175" s="21"/>
       <c r="Y175" s="23"/>
     </row>
-    <row r="176" spans="1:25" s="22" customFormat="1" ht="79.75" customHeight="1">
+    <row r="176" spans="1:25" s="22" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="40"/>
@@ -7162,7 +6827,7 @@
       <c r="G176" s="29"/>
       <c r="H176" s="14"/>
       <c r="I176" s="31"/>
-      <c r="J176" s="48"/>
+      <c r="J176" s="47"/>
       <c r="K176" s="39"/>
       <c r="L176" s="37"/>
       <c r="M176" s="39"/>
@@ -7176,7 +6841,7 @@
       <c r="X176" s="21"/>
       <c r="Y176" s="23"/>
     </row>
-    <row r="177" spans="1:16" ht="45.65" customHeight="1">
+    <row r="177" spans="1:16" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="40"/>
@@ -7186,12 +6851,12 @@
       <c r="G177" s="29"/>
       <c r="H177" s="14"/>
       <c r="I177" s="31"/>
-      <c r="J177" s="48"/>
+      <c r="J177" s="47"/>
       <c r="K177" s="39"/>
       <c r="L177" s="37"/>
       <c r="M177" s="39"/>
     </row>
-    <row r="178" spans="1:16" ht="82.75" customHeight="1">
+    <row r="178" spans="1:16" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="40"/>
@@ -7201,12 +6866,12 @@
       <c r="G178" s="29"/>
       <c r="H178" s="14"/>
       <c r="I178" s="31"/>
-      <c r="J178" s="48"/>
+      <c r="J178" s="47"/>
       <c r="K178" s="39"/>
       <c r="L178" s="37"/>
       <c r="M178" s="39"/>
     </row>
-    <row r="179" spans="1:16" ht="17.5">
+    <row r="179" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="36"/>
@@ -7216,12 +6881,12 @@
       <c r="G179" s="29"/>
       <c r="H179" s="14"/>
       <c r="I179" s="31"/>
-      <c r="J179" s="48"/>
+      <c r="J179" s="47"/>
       <c r="K179" s="39"/>
       <c r="L179" s="37"/>
       <c r="M179" s="39"/>
     </row>
-    <row r="180" spans="1:16" ht="100.25" customHeight="1">
+    <row r="180" spans="1:16" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="36"/>
@@ -7231,12 +6896,12 @@
       <c r="G180" s="29"/>
       <c r="H180" s="14"/>
       <c r="I180" s="31"/>
-      <c r="J180" s="48"/>
+      <c r="J180" s="47"/>
       <c r="K180" s="39"/>
       <c r="L180" s="37"/>
       <c r="M180" s="39"/>
     </row>
-    <row r="181" spans="1:16" ht="103.25" customHeight="1">
+    <row r="181" spans="1:16" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="36"/>
@@ -7246,12 +6911,12 @@
       <c r="G181" s="29"/>
       <c r="H181" s="14"/>
       <c r="I181" s="31"/>
-      <c r="J181" s="48"/>
+      <c r="J181" s="47"/>
       <c r="K181" s="39"/>
       <c r="L181" s="37"/>
       <c r="M181" s="39"/>
     </row>
-    <row r="182" spans="1:16" ht="89.4" customHeight="1">
+    <row r="182" spans="1:16" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="40"/>
@@ -7261,12 +6926,12 @@
       <c r="G182" s="31"/>
       <c r="H182" s="14"/>
       <c r="I182" s="31"/>
-      <c r="J182" s="48"/>
+      <c r="J182" s="47"/>
       <c r="K182" s="35"/>
       <c r="L182" s="32"/>
       <c r="M182" s="35"/>
     </row>
-    <row r="183" spans="1:16" ht="77.400000000000006" customHeight="1">
+    <row r="183" spans="1:16" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="40"/>
@@ -7276,12 +6941,12 @@
       <c r="G183" s="31"/>
       <c r="H183" s="14"/>
       <c r="I183" s="31"/>
-      <c r="J183" s="48"/>
+      <c r="J183" s="47"/>
       <c r="K183" s="35"/>
       <c r="L183" s="32"/>
       <c r="M183" s="35"/>
     </row>
-    <row r="184" spans="1:16" ht="73.25" customHeight="1">
+    <row r="184" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="29"/>
@@ -7291,15 +6956,15 @@
       <c r="G184" s="31"/>
       <c r="H184" s="14"/>
       <c r="I184" s="31"/>
-      <c r="J184" s="48"/>
+      <c r="J184" s="47"/>
       <c r="K184" s="35"/>
       <c r="L184" s="32"/>
       <c r="M184" s="35"/>
-      <c r="N184" s="55"/>
-      <c r="O184" s="54"/>
-      <c r="P184" s="54"/>
-    </row>
-    <row r="185" spans="1:16" ht="102.5" customHeight="1">
+      <c r="N184" s="54"/>
+      <c r="O184" s="53"/>
+      <c r="P184" s="53"/>
+    </row>
+    <row r="185" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="29"/>
@@ -7309,15 +6974,15 @@
       <c r="G185" s="31"/>
       <c r="H185" s="14"/>
       <c r="I185" s="31"/>
-      <c r="J185" s="48"/>
+      <c r="J185" s="47"/>
       <c r="K185" s="35"/>
       <c r="L185" s="32"/>
       <c r="M185" s="35"/>
-      <c r="N185" s="55"/>
-      <c r="O185" s="54"/>
-      <c r="P185" s="54"/>
-    </row>
-    <row r="186" spans="1:16" ht="73.25" customHeight="1">
+      <c r="N185" s="54"/>
+      <c r="O185" s="53"/>
+      <c r="P185" s="53"/>
+    </row>
+    <row r="186" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="29"/>
@@ -7327,12 +6992,12 @@
       <c r="G186" s="31"/>
       <c r="H186" s="14"/>
       <c r="I186" s="31"/>
-      <c r="J186" s="48"/>
+      <c r="J186" s="47"/>
       <c r="K186" s="35"/>
       <c r="L186" s="32"/>
       <c r="M186" s="35"/>
     </row>
-    <row r="187" spans="1:16" ht="67.75" customHeight="1">
+    <row r="187" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="36"/>
@@ -7342,15 +7007,15 @@
       <c r="G187" s="31"/>
       <c r="H187" s="14"/>
       <c r="I187" s="31"/>
-      <c r="J187" s="48"/>
+      <c r="J187" s="47"/>
       <c r="K187" s="35"/>
       <c r="L187" s="32"/>
       <c r="M187" s="35"/>
-      <c r="N187" s="55"/>
-      <c r="O187" s="54"/>
-      <c r="P187" s="54"/>
-    </row>
-    <row r="188" spans="1:16" ht="71.400000000000006" customHeight="1">
+      <c r="N187" s="54"/>
+      <c r="O187" s="53"/>
+      <c r="P187" s="53"/>
+    </row>
+    <row r="188" spans="1:16" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="36"/>
@@ -7360,15 +7025,15 @@
       <c r="G188" s="31"/>
       <c r="H188" s="14"/>
       <c r="I188" s="31"/>
-      <c r="J188" s="48"/>
+      <c r="J188" s="47"/>
       <c r="K188" s="39"/>
       <c r="L188" s="32"/>
-      <c r="M188" s="52"/>
-      <c r="N188" s="55"/>
-      <c r="O188" s="54"/>
-      <c r="P188" s="54"/>
-    </row>
-    <row r="189" spans="1:16" ht="69.650000000000006" customHeight="1">
+      <c r="M188" s="51"/>
+      <c r="N188" s="54"/>
+      <c r="O188" s="53"/>
+      <c r="P188" s="53"/>
+    </row>
+    <row r="189" spans="1:16" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="36"/>
@@ -7378,15 +7043,15 @@
       <c r="G189" s="31"/>
       <c r="H189" s="14"/>
       <c r="I189" s="31"/>
-      <c r="J189" s="48"/>
+      <c r="J189" s="47"/>
       <c r="K189" s="35"/>
       <c r="L189" s="32"/>
       <c r="M189" s="35"/>
-      <c r="N189" s="55"/>
-      <c r="O189" s="54"/>
-      <c r="P189" s="54"/>
-    </row>
-    <row r="190" spans="1:16" ht="43.25" customHeight="1">
+      <c r="N189" s="54"/>
+      <c r="O189" s="53"/>
+      <c r="P189" s="53"/>
+    </row>
+    <row r="190" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="36"/>
@@ -7396,15 +7061,15 @@
       <c r="G190" s="31"/>
       <c r="H190" s="14"/>
       <c r="I190" s="31"/>
-      <c r="J190" s="48"/>
-      <c r="K190" s="53"/>
+      <c r="J190" s="47"/>
+      <c r="K190" s="52"/>
       <c r="L190" s="32"/>
       <c r="M190" s="35"/>
-      <c r="N190" s="55"/>
-      <c r="O190" s="54"/>
-      <c r="P190" s="54"/>
-    </row>
-    <row r="191" spans="1:16" ht="53.4" customHeight="1">
+      <c r="N190" s="54"/>
+      <c r="O190" s="53"/>
+      <c r="P190" s="53"/>
+    </row>
+    <row r="191" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="36"/>
@@ -7414,15 +7079,15 @@
       <c r="G191" s="31"/>
       <c r="H191" s="14"/>
       <c r="I191" s="31"/>
-      <c r="J191" s="48"/>
+      <c r="J191" s="47"/>
       <c r="K191" s="35"/>
       <c r="L191" s="32"/>
       <c r="M191" s="39"/>
-      <c r="N191" s="46"/>
-      <c r="O191" s="54"/>
-      <c r="P191" s="54"/>
-    </row>
-    <row r="192" spans="1:16" ht="79.25" customHeight="1">
+      <c r="N191" s="45"/>
+      <c r="O191" s="53"/>
+      <c r="P191" s="53"/>
+    </row>
+    <row r="192" spans="1:16" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="36"/>
@@ -7432,15 +7097,15 @@
       <c r="G192" s="31"/>
       <c r="H192" s="14"/>
       <c r="I192" s="31"/>
-      <c r="J192" s="48"/>
+      <c r="J192" s="47"/>
       <c r="K192" s="35"/>
       <c r="L192" s="32"/>
       <c r="M192" s="39"/>
-      <c r="N192" s="46"/>
-      <c r="O192" s="54"/>
-      <c r="P192" s="54"/>
-    </row>
-    <row r="193" spans="1:16" ht="120.65" customHeight="1">
+      <c r="N192" s="45"/>
+      <c r="O192" s="53"/>
+      <c r="P192" s="53"/>
+    </row>
+    <row r="193" spans="1:16" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="36"/>
@@ -7450,15 +7115,15 @@
       <c r="G193" s="31"/>
       <c r="H193" s="14"/>
       <c r="I193" s="31"/>
-      <c r="J193" s="48"/>
+      <c r="J193" s="47"/>
       <c r="K193" s="39"/>
       <c r="L193" s="32"/>
       <c r="M193" s="35"/>
-      <c r="N193" s="46"/>
-      <c r="O193" s="54"/>
-      <c r="P193" s="54"/>
-    </row>
-    <row r="194" spans="1:16" ht="94.75" customHeight="1">
+      <c r="N193" s="45"/>
+      <c r="O193" s="53"/>
+      <c r="P193" s="53"/>
+    </row>
+    <row r="194" spans="1:16" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="40"/>
@@ -7468,12 +7133,12 @@
       <c r="G194" s="31"/>
       <c r="H194" s="14"/>
       <c r="I194" s="31"/>
-      <c r="J194" s="48"/>
+      <c r="J194" s="47"/>
       <c r="K194" s="35"/>
       <c r="L194" s="32"/>
       <c r="M194" s="35"/>
     </row>
-    <row r="195" spans="1:16" ht="67.75" customHeight="1">
+    <row r="195" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="40"/>
@@ -7483,12 +7148,12 @@
       <c r="G195" s="31"/>
       <c r="H195" s="14"/>
       <c r="I195" s="31"/>
-      <c r="J195" s="48"/>
+      <c r="J195" s="47"/>
       <c r="K195" s="35"/>
       <c r="L195" s="32"/>
       <c r="M195" s="35"/>
     </row>
-    <row r="196" spans="1:16" ht="17.5">
+    <row r="196" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="40"/>
@@ -7498,12 +7163,12 @@
       <c r="G196" s="31"/>
       <c r="H196" s="14"/>
       <c r="I196" s="31"/>
-      <c r="J196" s="48"/>
+      <c r="J196" s="47"/>
       <c r="K196" s="35"/>
       <c r="L196" s="32"/>
       <c r="M196" s="35"/>
     </row>
-    <row r="197" spans="1:16" ht="17.5">
+    <row r="197" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="40"/>
@@ -7513,12 +7178,12 @@
       <c r="G197" s="31"/>
       <c r="H197" s="14"/>
       <c r="I197" s="31"/>
-      <c r="J197" s="48"/>
+      <c r="J197" s="47"/>
       <c r="K197" s="35"/>
       <c r="L197" s="32"/>
       <c r="M197" s="35"/>
     </row>
-    <row r="198" spans="1:16" ht="17.5">
+    <row r="198" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="40"/>
@@ -7528,12 +7193,12 @@
       <c r="G198" s="31"/>
       <c r="H198" s="14"/>
       <c r="I198" s="31"/>
-      <c r="J198" s="48"/>
+      <c r="J198" s="47"/>
       <c r="K198" s="35"/>
       <c r="L198" s="32"/>
       <c r="M198" s="35"/>
     </row>
-    <row r="199" spans="1:16" ht="17.5">
+    <row r="199" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="40"/>
@@ -7543,12 +7208,12 @@
       <c r="G199" s="31"/>
       <c r="H199" s="14"/>
       <c r="I199" s="31"/>
-      <c r="J199" s="48"/>
+      <c r="J199" s="47"/>
       <c r="K199" s="35"/>
       <c r="L199" s="32"/>
       <c r="M199" s="35"/>
     </row>
-    <row r="200" spans="1:16" ht="17.5">
+    <row r="200" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="40"/>
@@ -7558,20 +7223,18 @@
       <c r="G200" s="31"/>
       <c r="H200" s="14"/>
       <c r="I200" s="31"/>
-      <c r="J200" s="48"/>
+      <c r="J200" s="47"/>
       <c r="K200" s="35"/>
       <c r="L200" s="32"/>
       <c r="M200" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H21" r:id="rId2"/>
-    <hyperlink ref="R9" r:id="rId3" display="3234***@126.com"/>
+    <hyperlink ref="R9" r:id="rId1" display="3234***@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>